--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10518,7 +10518,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
         <x:v>12</x:v>
@@ -10547,13 +10547,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10576,13 +10576,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10524,7 +10524,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I338" s="0" t="n">
         <x:v>0</x:v>
@@ -10550,7 +10550,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>14</x:v>
@@ -10579,10 +10579,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -13934,7 +13934,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D456" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E456" s="1" t="n">
         <x:v>194</x:v>
@@ -13943,7 +13943,7 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="G456" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H456" s="1" t="n">
         <x:v>78</x:v>
@@ -13969,10 +13969,10 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="F457" s="1" t="n">
-        <x:v>1031</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="G457" s="1" t="n">
-        <x:v>981</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="H457" s="1" t="n">
         <x:v>415</x:v>
@@ -13992,16 +13992,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D458" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E458" s="1" t="n">
         <x:v>739</x:v>
       </x:c>
       <x:c r="F458" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="G458" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="H458" s="1" t="n">
         <x:v>493</x:v>
@@ -14230,7 +14230,7 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="F466" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="G466" s="1" t="n">
         <x:v>524</x:v>
@@ -14259,7 +14259,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c r="F467" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="G467" s="1" t="n">
         <x:v>689</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -35374,7 +35374,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="G1195" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H1195" s="1" t="n">
         <x:v>79</x:v>
@@ -35403,7 +35403,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="n">
         <x:v>105</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -3958,7 +3958,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D112" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E112" s="1" t="n">
         <x:v>10</x:v>
@@ -4016,7 +4016,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D114" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E114" s="1" t="n">
         <x:v>40</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -29771,7 +29771,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1002" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F1002" s="1" t="n">
         <x:v>175</x:v>
@@ -29806,7 +29806,7 @@
         <x:v>1391</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>1669</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
         <x:v>1548</x:v>
@@ -29829,13 +29829,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E1004" s="1" t="n">
-        <x:v>1133</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
         <x:v>1566</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>1873</x:v>
+        <x:v>1874</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
         <x:v>1694</x:v>
@@ -30450,7 +30450,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="1026" spans="1:9">
@@ -30479,7 +30479,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="1027" spans="1:9">

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -14233,7 +14233,7 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="G466" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="H466" s="1" t="n">
         <x:v>312</x:v>
@@ -14262,7 +14262,7 @@
         <x:v>944</x:v>
       </x:c>
       <x:c r="G467" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H467" s="1" t="n">
         <x:v>450</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -5562,7 +5562,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G167" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H167" s="1" t="n">
         <x:v>24</x:v>
@@ -5591,7 +5591,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G168" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H168" s="1" t="n">
         <x:v>34</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -13966,7 +13966,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E457" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="F457" s="1" t="n">
         <x:v>1032</x:v>
@@ -13995,7 +13995,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="E458" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="F458" s="1" t="n">
         <x:v>1369</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10199,7 +10199,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F327" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G327" s="1" t="n">
         <x:v>1</x:v>
@@ -10257,7 +10257,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F329" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G329" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -31917,7 +31917,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1076" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
         <x:v>36</x:v>
@@ -31946,7 +31946,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
         <x:v>46</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10518,10 +10518,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>3</x:v>
@@ -10547,13 +10547,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I339" s="0" t="n">
         <x:v>0</x:v>
@@ -10576,13 +10576,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I340" s="0" t="n">
         <x:v>0</x:v>
@@ -29806,7 +29806,7 @@
         <x:v>1391</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
-        <x:v>1670</x:v>
+        <x:v>1671</x:v>
       </x:c>
       <x:c r="H1003" s="1" t="n">
         <x:v>1548</x:v>
@@ -29835,7 +29835,7 @@
         <x:v>1566</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
-        <x:v>1874</x:v>
+        <x:v>1875</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
         <x:v>1694</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10518,10 +10518,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F338" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>3</x:v>
@@ -10544,13 +10544,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E339" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F339" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>15</x:v>
@@ -10573,13 +10573,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E340" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F340" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
         <x:v>18</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10521,7 +10521,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G338" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H338" s="1" t="n">
         <x:v>3</x:v>
@@ -10550,7 +10550,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G339" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H339" s="1" t="n">
         <x:v>15</x:v>
@@ -10579,7 +10579,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G340" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H340" s="1" t="n">
         <x:v>18</x:v>
@@ -20117,10 +20117,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H669" s="1" t="n">
         <x:v>2</x:v>
@@ -20146,10 +20146,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F670" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G670" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H670" s="1" t="n">
         <x:v>4</x:v>
@@ -26239,7 +26239,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
         <x:v>10</x:v>
@@ -26265,10 +26265,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
         <x:v>77</x:v>
@@ -26294,10 +26294,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>87</x:v>
@@ -26494,7 +26494,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E889" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
         <x:v>32</x:v>
@@ -26523,7 +26523,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
         <x:v>52</x:v>
@@ -26581,7 +26581,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
         <x:v>51</x:v>
@@ -26610,7 +26610,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>69</x:v>
@@ -26810,7 +26810,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D900" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E900" s="1" t="n">
         <x:v>12</x:v>
@@ -26839,7 +26839,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D901" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -1815,7 +1815,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>9</x:v>
@@ -1844,7 +1844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>14</x:v>
@@ -26581,7 +26581,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
         <x:v>51</x:v>
@@ -26610,7 +26610,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>69</x:v>
@@ -31920,7 +31920,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1076" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1076" s="1" t="n">
         <x:v>59</x:v>
@@ -31949,7 +31949,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="n">
         <x:v>66</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -7679,7 +7679,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G240" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H240" s="1" t="n">
         <x:v>21</x:v>
@@ -7708,7 +7708,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G241" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H241" s="1" t="n">
         <x:v>28</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -35371,10 +35371,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F1195" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G1195" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="H1195" s="1" t="n">
         <x:v>79</x:v>
@@ -35400,10 +35400,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="n">
         <x:v>105</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -13969,7 +13969,7 @@
         <x:v>546</x:v>
       </x:c>
       <x:c r="F457" s="1" t="n">
-        <x:v>1032</x:v>
+        <x:v>1033</x:v>
       </x:c>
       <x:c r="G457" s="1" t="n">
         <x:v>982</x:v>
@@ -13998,7 +13998,7 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="F458" s="1" t="n">
-        <x:v>1369</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="G458" s="1" t="n">
         <x:v>1269</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -13975,7 +13975,7 @@
         <x:v>982</x:v>
       </x:c>
       <x:c r="H457" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="I457" s="0" t="n">
         <x:v>17</x:v>
@@ -14004,7 +14004,7 @@
         <x:v>1269</x:v>
       </x:c>
       <x:c r="H458" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="I458" s="0" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -13969,10 +13969,10 @@
         <x:v>546</x:v>
       </x:c>
       <x:c r="F457" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="G457" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="H457" s="1" t="n">
         <x:v>414</x:v>
@@ -13998,10 +13998,10 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="F458" s="1" t="n">
-        <x:v>1370</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="G458" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1268</x:v>
       </x:c>
       <x:c r="H458" s="1" t="n">
         <x:v>492</x:v>
@@ -14549,7 +14549,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F477" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G477" s="1" t="n">
         <x:v>2</x:v>
@@ -14578,7 +14578,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F478" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G478" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -35342,7 +35342,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F1194" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1194" s="1" t="n">
         <x:v>72</x:v>
@@ -35400,7 +35400,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="n">
         <x:v>258</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -26265,7 +26265,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
         <x:v>237</x:v>
@@ -26294,7 +26294,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
         <x:v>302</x:v>
@@ -26581,7 +26581,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
         <x:v>51</x:v>
@@ -26610,7 +26610,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>69</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -26584,7 +26584,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
         <x:v>43</x:v>
@@ -26613,7 +26613,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>67</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -26268,7 +26268,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
         <x:v>77</x:v>
@@ -26297,7 +26297,7 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>87</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -1322,7 +1322,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>236</x:v>
@@ -1351,7 +1351,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>281</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -30502,7 +30502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="n">
         <x:v>0</x:v>
@@ -30560,7 +30560,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
         <x:v>1</x:v>
@@ -30705,7 +30705,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="n">
         <x:v>1</x:v>
@@ -30734,7 +30734,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="n">
         <x:v>1</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -26233,13 +26233,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E880" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H880" s="1" t="n">
         <x:v>10</x:v>
@@ -26265,10 +26265,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H881" s="1" t="n">
         <x:v>77</x:v>
@@ -26291,13 +26291,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>87</x:v>
@@ -26462,19 +26462,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
@@ -26497,10 +26497,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G889" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H889" s="1" t="n">
         <x:v>9</x:v>
@@ -26520,19 +26520,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F890" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I890" s="0" t="n">
         <x:v>0</x:v>
@@ -26558,10 +26558,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I891" s="0" t="n">
         <x:v>0</x:v>
@@ -26584,13 +26584,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H892" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I892" s="0" t="n">
         <x:v>0</x:v>
@@ -26613,13 +26613,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
@@ -26729,7 +26729,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
         <x:v>7</x:v>
@@ -26758,7 +26758,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F898" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
         <x:v>7</x:v>
@@ -26784,13 +26784,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E899" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
         <x:v>4</x:v>
@@ -26816,7 +26816,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
         <x:v>33</x:v>
@@ -26842,13 +26842,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -10147,7 +10147,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="H325" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I325" s="0" t="n">
         <x:v>0</x:v>
@@ -10176,7 +10176,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="H326" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I326" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -22994,7 +22994,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H768" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I768" s="0" t="n">
         <x:v>0</x:v>
@@ -23023,7 +23023,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H769" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I769" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -14204,7 +14204,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="G465" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H465" s="1" t="n">
         <x:v>138</x:v>
@@ -14233,7 +14233,7 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="G466" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="H466" s="1" t="n">
         <x:v>312</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -29780,7 +29780,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H1002" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I1002" s="0" t="n">
         <x:v>0</x:v>
@@ -29803,7 +29803,7 @@
         <x:v>1010</x:v>
       </x:c>
       <x:c r="F1003" s="1" t="n">
-        <x:v>1391</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="G1003" s="1" t="n">
         <x:v>1671</x:v>
@@ -29832,13 +29832,13 @@
         <x:v>1134</x:v>
       </x:c>
       <x:c r="F1004" s="1" t="n">
-        <x:v>1566</x:v>
+        <x:v>1567</x:v>
       </x:c>
       <x:c r="G1004" s="1" t="n">
         <x:v>1875</x:v>
       </x:c>
       <x:c r="H1004" s="1" t="n">
-        <x:v>1694</x:v>
+        <x:v>1695</x:v>
       </x:c>
       <x:c r="I1004" s="0" t="n">
         <x:v>4</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -934,10 +934,16 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
-    <x:t>186</x:t>
+    <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>258</x:t>
+    <x:t>182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -1007,9 +1013,6 @@
   </x:si>
   <x:si>
     <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182</x:t>
   </x:si>
   <x:si>
     <x:t>191</x:t>
@@ -36096,13 +36099,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E1196" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>77</x:v>
@@ -36125,16 +36128,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1197" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H1197" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36154,16 +36157,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E1198" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="F1198" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="I1198" s="0" t="s">
         <x:v>12</x:v>
@@ -36531,7 +36534,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1211" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1211" s="1" t="s">
         <x:v>14</x:v>
@@ -36589,7 +36592,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1213" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1213" s="1" t="s">
         <x:v>14</x:v>
@@ -36838,7 +36841,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36867,7 +36870,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36879,13 +36882,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1223" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F1223" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G1223" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H1223" s="1" t="s">
         <x:v>272</x:v>
@@ -36896,7 +36899,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>10</x:v>
@@ -36908,13 +36911,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1224" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F1224" s="1" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="G1224" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H1224" s="1" t="s">
         <x:v>236</x:v>
@@ -36925,7 +36928,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36954,7 +36957,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>49</x:v>
@@ -36983,7 +36986,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>49</x:v>
@@ -37012,7 +37015,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37041,7 +37044,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37070,7 +37073,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>23</x:v>
@@ -37099,7 +37102,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37128,7 +37131,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>25</x:v>
@@ -37157,7 +37160,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>25</x:v>
@@ -37186,7 +37189,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>26</x:v>
@@ -37215,7 +37218,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>26</x:v>
@@ -37227,7 +37230,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1235" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F1235" s="1" t="s">
         <x:v>98</x:v>
@@ -37244,7 +37247,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>26</x:v>
@@ -37256,13 +37259,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1236" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F1236" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="G1236" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="H1236" s="1" t="s">
         <x:v>81</x:v>
@@ -37273,7 +37276,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>119</x:v>
@@ -37302,7 +37305,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>119</x:v>
@@ -37331,7 +37334,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>119</x:v>
@@ -37360,7 +37363,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>73</x:v>
@@ -37389,7 +37392,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>73</x:v>
@@ -37418,7 +37421,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>73</x:v>
@@ -37447,7 +37450,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>31</x:v>
@@ -37476,7 +37479,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>31</x:v>
@@ -37488,7 +37491,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E1244" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F1244" s="1" t="s">
         <x:v>28</x:v>
@@ -37505,7 +37508,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>31</x:v>
@@ -37517,7 +37520,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E1245" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F1245" s="1" t="s">
         <x:v>99</x:v>
@@ -37534,7 +37537,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>33</x:v>
@@ -37563,7 +37566,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>33</x:v>
@@ -37592,7 +37595,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>33</x:v>
@@ -37621,7 +37624,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>10</x:v>
@@ -37650,7 +37653,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>10</x:v>
@@ -37679,7 +37682,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>10</x:v>
@@ -37708,7 +37711,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>49</x:v>
@@ -37737,7 +37740,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>49</x:v>
@@ -37766,7 +37769,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>23</x:v>
@@ -37795,7 +37798,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>23</x:v>
@@ -37824,7 +37827,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>23</x:v>
@@ -37853,7 +37856,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>25</x:v>
@@ -37882,7 +37885,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>25</x:v>
@@ -37911,7 +37914,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>25</x:v>
@@ -37940,7 +37943,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>26</x:v>
@@ -37969,7 +37972,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>26</x:v>
@@ -37998,7 +38001,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>26</x:v>
@@ -38027,7 +38030,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>31</x:v>
@@ -38056,7 +38059,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>31</x:v>
@@ -38085,7 +38088,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38114,7 +38117,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>33</x:v>
@@ -38143,7 +38146,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>33</x:v>
@@ -38172,7 +38175,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>33</x:v>
@@ -38201,7 +38204,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>10</x:v>
@@ -38230,7 +38233,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>10</x:v>
@@ -38259,7 +38262,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38288,7 +38291,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>49</x:v>
@@ -38317,7 +38320,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>49</x:v>
@@ -38346,7 +38349,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>25</x:v>
@@ -38375,7 +38378,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>25</x:v>
@@ -38404,7 +38407,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>25</x:v>
@@ -38433,7 +38436,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>26</x:v>
@@ -38462,7 +38465,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>26</x:v>
@@ -38491,7 +38494,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>26</x:v>
@@ -38520,7 +38523,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>31</x:v>
@@ -38549,7 +38552,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>31</x:v>
@@ -38578,7 +38581,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>31</x:v>
@@ -38607,7 +38610,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>33</x:v>
@@ -38636,7 +38639,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>33</x:v>
@@ -38665,7 +38668,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>10</x:v>
@@ -38694,7 +38697,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>10</x:v>
@@ -38723,7 +38726,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>10</x:v>
@@ -38752,7 +38755,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>49</x:v>
@@ -38781,7 +38784,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>49</x:v>
@@ -38810,7 +38813,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>49</x:v>
@@ -38839,7 +38842,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>25</x:v>
@@ -38868,7 +38871,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>25</x:v>
@@ -38897,7 +38900,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>25</x:v>
@@ -38926,7 +38929,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>26</x:v>
@@ -38955,7 +38958,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>26</x:v>
@@ -38984,7 +38987,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>26</x:v>
@@ -39013,7 +39016,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>31</x:v>
@@ -39042,7 +39045,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39071,7 +39074,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39100,7 +39103,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>33</x:v>
@@ -39129,7 +39132,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>33</x:v>
@@ -39158,7 +39161,7 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>33</x:v>
@@ -39187,7 +39190,7 @@
     </x:row>
     <x:row r="1303" spans="1:9">
       <x:c r="A1303" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1303" s="0" t="s">
         <x:v>10</x:v>
@@ -39216,7 +39219,7 @@
     </x:row>
     <x:row r="1304" spans="1:9">
       <x:c r="A1304" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1304" s="0" t="s">
         <x:v>10</x:v>
@@ -39245,7 +39248,7 @@
     </x:row>
     <x:row r="1305" spans="1:9">
       <x:c r="A1305" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1305" s="0" t="s">
         <x:v>10</x:v>
@@ -39274,7 +39277,7 @@
     </x:row>
     <x:row r="1306" spans="1:9">
       <x:c r="A1306" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1306" s="0" t="s">
         <x:v>49</x:v>
@@ -39303,7 +39306,7 @@
     </x:row>
     <x:row r="1307" spans="1:9">
       <x:c r="A1307" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1307" s="0" t="s">
         <x:v>49</x:v>
@@ -39332,7 +39335,7 @@
     </x:row>
     <x:row r="1308" spans="1:9">
       <x:c r="A1308" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1308" s="0" t="s">
         <x:v>49</x:v>
@@ -39361,7 +39364,7 @@
     </x:row>
     <x:row r="1309" spans="1:9">
       <x:c r="A1309" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1309" s="0" t="s">
         <x:v>25</x:v>
@@ -39390,7 +39393,7 @@
     </x:row>
     <x:row r="1310" spans="1:9">
       <x:c r="A1310" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1310" s="0" t="s">
         <x:v>25</x:v>
@@ -39419,7 +39422,7 @@
     </x:row>
     <x:row r="1311" spans="1:9">
       <x:c r="A1311" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1311" s="0" t="s">
         <x:v>25</x:v>
@@ -39448,7 +39451,7 @@
     </x:row>
     <x:row r="1312" spans="1:9">
       <x:c r="A1312" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1312" s="0" t="s">
         <x:v>26</x:v>
@@ -39477,7 +39480,7 @@
     </x:row>
     <x:row r="1313" spans="1:9">
       <x:c r="A1313" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1313" s="0" t="s">
         <x:v>26</x:v>
@@ -39506,7 +39509,7 @@
     </x:row>
     <x:row r="1314" spans="1:9">
       <x:c r="A1314" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1314" s="0" t="s">
         <x:v>26</x:v>
@@ -39535,7 +39538,7 @@
     </x:row>
     <x:row r="1315" spans="1:9">
       <x:c r="A1315" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1315" s="0" t="s">
         <x:v>31</x:v>
@@ -39564,7 +39567,7 @@
     </x:row>
     <x:row r="1316" spans="1:9">
       <x:c r="A1316" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1316" s="0" t="s">
         <x:v>31</x:v>
@@ -39593,7 +39596,7 @@
     </x:row>
     <x:row r="1317" spans="1:9">
       <x:c r="A1317" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1317" s="0" t="s">
         <x:v>31</x:v>
@@ -39622,7 +39625,7 @@
     </x:row>
     <x:row r="1318" spans="1:9">
       <x:c r="A1318" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1318" s="0" t="s">
         <x:v>33</x:v>
@@ -39651,7 +39654,7 @@
     </x:row>
     <x:row r="1319" spans="1:9">
       <x:c r="A1319" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1319" s="0" t="s">
         <x:v>33</x:v>
@@ -39680,7 +39683,7 @@
     </x:row>
     <x:row r="1320" spans="1:9">
       <x:c r="A1320" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1320" s="0" t="s">
         <x:v>33</x:v>
@@ -39709,7 +39712,7 @@
     </x:row>
     <x:row r="1321" spans="1:9">
       <x:c r="A1321" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1321" s="0" t="s">
         <x:v>10</x:v>
@@ -39738,7 +39741,7 @@
     </x:row>
     <x:row r="1322" spans="1:9">
       <x:c r="A1322" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1322" s="0" t="s">
         <x:v>10</x:v>
@@ -39767,7 +39770,7 @@
     </x:row>
     <x:row r="1323" spans="1:9">
       <x:c r="A1323" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1323" s="0" t="s">
         <x:v>10</x:v>
@@ -39796,7 +39799,7 @@
     </x:row>
     <x:row r="1324" spans="1:9">
       <x:c r="A1324" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1324" s="0" t="s">
         <x:v>23</x:v>
@@ -39825,7 +39828,7 @@
     </x:row>
     <x:row r="1325" spans="1:9">
       <x:c r="A1325" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1325" s="0" t="s">
         <x:v>23</x:v>
@@ -39854,7 +39857,7 @@
     </x:row>
     <x:row r="1326" spans="1:9">
       <x:c r="A1326" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1326" s="0" t="s">
         <x:v>25</x:v>
@@ -39883,7 +39886,7 @@
     </x:row>
     <x:row r="1327" spans="1:9">
       <x:c r="A1327" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1327" s="0" t="s">
         <x:v>25</x:v>
@@ -39912,7 +39915,7 @@
     </x:row>
     <x:row r="1328" spans="1:9">
       <x:c r="A1328" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1328" s="0" t="s">
         <x:v>25</x:v>
@@ -39941,7 +39944,7 @@
     </x:row>
     <x:row r="1329" spans="1:9">
       <x:c r="A1329" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1329" s="0" t="s">
         <x:v>26</x:v>
@@ -39970,7 +39973,7 @@
     </x:row>
     <x:row r="1330" spans="1:9">
       <x:c r="A1330" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1330" s="0" t="s">
         <x:v>26</x:v>
@@ -39999,7 +40002,7 @@
     </x:row>
     <x:row r="1331" spans="1:9">
       <x:c r="A1331" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1331" s="0" t="s">
         <x:v>26</x:v>
@@ -40028,7 +40031,7 @@
     </x:row>
     <x:row r="1332" spans="1:9">
       <x:c r="A1332" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1332" s="0" t="s">
         <x:v>10</x:v>
@@ -40057,7 +40060,7 @@
     </x:row>
     <x:row r="1333" spans="1:9">
       <x:c r="A1333" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1333" s="0" t="s">
         <x:v>10</x:v>
@@ -40086,7 +40089,7 @@
     </x:row>
     <x:row r="1334" spans="1:9">
       <x:c r="A1334" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1334" s="0" t="s">
         <x:v>10</x:v>
@@ -40115,7 +40118,7 @@
     </x:row>
     <x:row r="1335" spans="1:9">
       <x:c r="A1335" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1335" s="0" t="s">
         <x:v>49</x:v>
@@ -40144,7 +40147,7 @@
     </x:row>
     <x:row r="1336" spans="1:9">
       <x:c r="A1336" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1336" s="0" t="s">
         <x:v>49</x:v>
@@ -40173,7 +40176,7 @@
     </x:row>
     <x:row r="1337" spans="1:9">
       <x:c r="A1337" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1337" s="0" t="s">
         <x:v>49</x:v>
@@ -40202,7 +40205,7 @@
     </x:row>
     <x:row r="1338" spans="1:9">
       <x:c r="A1338" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1338" s="0" t="s">
         <x:v>25</x:v>
@@ -40231,7 +40234,7 @@
     </x:row>
     <x:row r="1339" spans="1:9">
       <x:c r="A1339" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1339" s="0" t="s">
         <x:v>25</x:v>
@@ -40260,7 +40263,7 @@
     </x:row>
     <x:row r="1340" spans="1:9">
       <x:c r="A1340" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1340" s="0" t="s">
         <x:v>25</x:v>
@@ -40289,7 +40292,7 @@
     </x:row>
     <x:row r="1341" spans="1:9">
       <x:c r="A1341" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1341" s="0" t="s">
         <x:v>26</x:v>
@@ -40318,7 +40321,7 @@
     </x:row>
     <x:row r="1342" spans="1:9">
       <x:c r="A1342" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1342" s="0" t="s">
         <x:v>26</x:v>
@@ -40347,7 +40350,7 @@
     </x:row>
     <x:row r="1343" spans="1:9">
       <x:c r="A1343" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1343" s="0" t="s">
         <x:v>26</x:v>
@@ -40376,7 +40379,7 @@
     </x:row>
     <x:row r="1344" spans="1:9">
       <x:c r="A1344" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1344" s="0" t="s">
         <x:v>31</x:v>
@@ -40405,7 +40408,7 @@
     </x:row>
     <x:row r="1345" spans="1:9">
       <x:c r="A1345" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1345" s="0" t="s">
         <x:v>31</x:v>
@@ -40434,7 +40437,7 @@
     </x:row>
     <x:row r="1346" spans="1:9">
       <x:c r="A1346" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1346" s="0" t="s">
         <x:v>31</x:v>
@@ -40463,7 +40466,7 @@
     </x:row>
     <x:row r="1347" spans="1:9">
       <x:c r="A1347" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1347" s="0" t="s">
         <x:v>33</x:v>
@@ -40492,7 +40495,7 @@
     </x:row>
     <x:row r="1348" spans="1:9">
       <x:c r="A1348" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1348" s="0" t="s">
         <x:v>33</x:v>
@@ -40521,7 +40524,7 @@
     </x:row>
     <x:row r="1349" spans="1:9">
       <x:c r="A1349" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1349" s="0" t="s">
         <x:v>33</x:v>
@@ -40550,7 +40553,7 @@
     </x:row>
     <x:row r="1350" spans="1:9">
       <x:c r="A1350" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1350" s="0" t="s">
         <x:v>10</x:v>
@@ -40579,7 +40582,7 @@
     </x:row>
     <x:row r="1351" spans="1:9">
       <x:c r="A1351" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1351" s="0" t="s">
         <x:v>10</x:v>
@@ -40608,7 +40611,7 @@
     </x:row>
     <x:row r="1352" spans="1:9">
       <x:c r="A1352" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1352" s="0" t="s">
         <x:v>10</x:v>
@@ -40637,7 +40640,7 @@
     </x:row>
     <x:row r="1353" spans="1:9">
       <x:c r="A1353" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1353" s="0" t="s">
         <x:v>49</x:v>
@@ -40666,7 +40669,7 @@
     </x:row>
     <x:row r="1354" spans="1:9">
       <x:c r="A1354" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1354" s="0" t="s">
         <x:v>49</x:v>
@@ -40695,7 +40698,7 @@
     </x:row>
     <x:row r="1355" spans="1:9">
       <x:c r="A1355" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1355" s="0" t="s">
         <x:v>49</x:v>
@@ -40724,7 +40727,7 @@
     </x:row>
     <x:row r="1356" spans="1:9">
       <x:c r="A1356" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1356" s="0" t="s">
         <x:v>23</x:v>
@@ -40753,7 +40756,7 @@
     </x:row>
     <x:row r="1357" spans="1:9">
       <x:c r="A1357" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1357" s="0" t="s">
         <x:v>23</x:v>
@@ -40782,7 +40785,7 @@
     </x:row>
     <x:row r="1358" spans="1:9">
       <x:c r="A1358" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1358" s="0" t="s">
         <x:v>23</x:v>
@@ -40811,7 +40814,7 @@
     </x:row>
     <x:row r="1359" spans="1:9">
       <x:c r="A1359" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1359" s="0" t="s">
         <x:v>25</x:v>
@@ -40840,7 +40843,7 @@
     </x:row>
     <x:row r="1360" spans="1:9">
       <x:c r="A1360" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1360" s="0" t="s">
         <x:v>25</x:v>
@@ -40869,7 +40872,7 @@
     </x:row>
     <x:row r="1361" spans="1:9">
       <x:c r="A1361" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1361" s="0" t="s">
         <x:v>25</x:v>
@@ -40898,7 +40901,7 @@
     </x:row>
     <x:row r="1362" spans="1:9">
       <x:c r="A1362" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1362" s="0" t="s">
         <x:v>26</x:v>
@@ -40927,7 +40930,7 @@
     </x:row>
     <x:row r="1363" spans="1:9">
       <x:c r="A1363" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1363" s="0" t="s">
         <x:v>26</x:v>
@@ -40956,7 +40959,7 @@
     </x:row>
     <x:row r="1364" spans="1:9">
       <x:c r="A1364" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1364" s="0" t="s">
         <x:v>26</x:v>
@@ -40985,7 +40988,7 @@
     </x:row>
     <x:row r="1365" spans="1:9">
       <x:c r="A1365" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1365" s="0" t="s">
         <x:v>31</x:v>
@@ -41014,7 +41017,7 @@
     </x:row>
     <x:row r="1366" spans="1:9">
       <x:c r="A1366" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1366" s="0" t="s">
         <x:v>31</x:v>
@@ -41043,7 +41046,7 @@
     </x:row>
     <x:row r="1367" spans="1:9">
       <x:c r="A1367" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1367" s="0" t="s">
         <x:v>31</x:v>
@@ -41072,7 +41075,7 @@
     </x:row>
     <x:row r="1368" spans="1:9">
       <x:c r="A1368" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1368" s="0" t="s">
         <x:v>33</x:v>
@@ -41101,7 +41104,7 @@
     </x:row>
     <x:row r="1369" spans="1:9">
       <x:c r="A1369" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1369" s="0" t="s">
         <x:v>33</x:v>
@@ -41130,7 +41133,7 @@
     </x:row>
     <x:row r="1370" spans="1:9">
       <x:c r="A1370" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1370" s="0" t="s">
         <x:v>33</x:v>
@@ -41159,7 +41162,7 @@
     </x:row>
     <x:row r="1371" spans="1:9">
       <x:c r="A1371" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1371" s="0" t="s">
         <x:v>10</x:v>
@@ -41188,7 +41191,7 @@
     </x:row>
     <x:row r="1372" spans="1:9">
       <x:c r="A1372" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1372" s="0" t="s">
         <x:v>10</x:v>
@@ -41217,7 +41220,7 @@
     </x:row>
     <x:row r="1373" spans="1:9">
       <x:c r="A1373" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1373" s="0" t="s">
         <x:v>10</x:v>
@@ -41246,7 +41249,7 @@
     </x:row>
     <x:row r="1374" spans="1:9">
       <x:c r="A1374" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1374" s="0" t="s">
         <x:v>49</x:v>
@@ -41275,7 +41278,7 @@
     </x:row>
     <x:row r="1375" spans="1:9">
       <x:c r="A1375" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1375" s="0" t="s">
         <x:v>49</x:v>
@@ -41304,7 +41307,7 @@
     </x:row>
     <x:row r="1376" spans="1:9">
       <x:c r="A1376" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1376" s="0" t="s">
         <x:v>23</x:v>
@@ -41333,7 +41336,7 @@
     </x:row>
     <x:row r="1377" spans="1:9">
       <x:c r="A1377" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1377" s="0" t="s">
         <x:v>23</x:v>
@@ -41362,7 +41365,7 @@
     </x:row>
     <x:row r="1378" spans="1:9">
       <x:c r="A1378" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1378" s="0" t="s">
         <x:v>23</x:v>
@@ -41391,7 +41394,7 @@
     </x:row>
     <x:row r="1379" spans="1:9">
       <x:c r="A1379" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1379" s="0" t="s">
         <x:v>25</x:v>
@@ -41420,7 +41423,7 @@
     </x:row>
     <x:row r="1380" spans="1:9">
       <x:c r="A1380" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1380" s="0" t="s">
         <x:v>25</x:v>
@@ -41449,7 +41452,7 @@
     </x:row>
     <x:row r="1381" spans="1:9">
       <x:c r="A1381" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1381" s="0" t="s">
         <x:v>25</x:v>
@@ -41478,7 +41481,7 @@
     </x:row>
     <x:row r="1382" spans="1:9">
       <x:c r="A1382" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1382" s="0" t="s">
         <x:v>26</x:v>
@@ -41507,7 +41510,7 @@
     </x:row>
     <x:row r="1383" spans="1:9">
       <x:c r="A1383" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1383" s="0" t="s">
         <x:v>26</x:v>
@@ -41536,7 +41539,7 @@
     </x:row>
     <x:row r="1384" spans="1:9">
       <x:c r="A1384" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1384" s="0" t="s">
         <x:v>26</x:v>
@@ -41565,7 +41568,7 @@
     </x:row>
     <x:row r="1385" spans="1:9">
       <x:c r="A1385" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1385" s="0" t="s">
         <x:v>31</x:v>
@@ -41594,7 +41597,7 @@
     </x:row>
     <x:row r="1386" spans="1:9">
       <x:c r="A1386" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1386" s="0" t="s">
         <x:v>31</x:v>
@@ -41623,7 +41626,7 @@
     </x:row>
     <x:row r="1387" spans="1:9">
       <x:c r="A1387" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1387" s="0" t="s">
         <x:v>31</x:v>
@@ -41652,7 +41655,7 @@
     </x:row>
     <x:row r="1388" spans="1:9">
       <x:c r="A1388" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1388" s="0" t="s">
         <x:v>33</x:v>
@@ -41681,7 +41684,7 @@
     </x:row>
     <x:row r="1389" spans="1:9">
       <x:c r="A1389" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1389" s="0" t="s">
         <x:v>33</x:v>
@@ -41710,7 +41713,7 @@
     </x:row>
     <x:row r="1390" spans="1:9">
       <x:c r="A1390" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1390" s="0" t="s">
         <x:v>10</x:v>
@@ -41739,7 +41742,7 @@
     </x:row>
     <x:row r="1391" spans="1:9">
       <x:c r="A1391" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1391" s="0" t="s">
         <x:v>10</x:v>
@@ -41754,10 +41757,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1391" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G1391" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H1391" s="1" t="s">
         <x:v>136</x:v>
@@ -41768,7 +41771,7 @@
     </x:row>
     <x:row r="1392" spans="1:9">
       <x:c r="A1392" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1392" s="0" t="s">
         <x:v>10</x:v>
@@ -41783,7 +41786,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F1392" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G1392" s="1" t="s">
         <x:v>152</x:v>
@@ -41797,7 +41800,7 @@
     </x:row>
     <x:row r="1393" spans="1:9">
       <x:c r="A1393" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1393" s="0" t="s">
         <x:v>49</x:v>
@@ -41826,7 +41829,7 @@
     </x:row>
     <x:row r="1394" spans="1:9">
       <x:c r="A1394" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1394" s="0" t="s">
         <x:v>49</x:v>
@@ -41855,7 +41858,7 @@
     </x:row>
     <x:row r="1395" spans="1:9">
       <x:c r="A1395" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1395" s="0" t="s">
         <x:v>49</x:v>
@@ -41884,7 +41887,7 @@
     </x:row>
     <x:row r="1396" spans="1:9">
       <x:c r="A1396" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1396" s="0" t="s">
         <x:v>23</x:v>
@@ -41913,7 +41916,7 @@
     </x:row>
     <x:row r="1397" spans="1:9">
       <x:c r="A1397" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1397" s="0" t="s">
         <x:v>23</x:v>
@@ -41942,7 +41945,7 @@
     </x:row>
     <x:row r="1398" spans="1:9">
       <x:c r="A1398" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1398" s="0" t="s">
         <x:v>23</x:v>
@@ -41971,7 +41974,7 @@
     </x:row>
     <x:row r="1399" spans="1:9">
       <x:c r="A1399" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1399" s="0" t="s">
         <x:v>25</x:v>
@@ -42000,7 +42003,7 @@
     </x:row>
     <x:row r="1400" spans="1:9">
       <x:c r="A1400" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1400" s="0" t="s">
         <x:v>25</x:v>
@@ -42029,7 +42032,7 @@
     </x:row>
     <x:row r="1401" spans="1:9">
       <x:c r="A1401" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1401" s="0" t="s">
         <x:v>25</x:v>
@@ -42058,7 +42061,7 @@
     </x:row>
     <x:row r="1402" spans="1:9">
       <x:c r="A1402" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1402" s="0" t="s">
         <x:v>26</x:v>
@@ -42087,7 +42090,7 @@
     </x:row>
     <x:row r="1403" spans="1:9">
       <x:c r="A1403" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1403" s="0" t="s">
         <x:v>26</x:v>
@@ -42099,16 +42102,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1403" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F1403" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G1403" s="1" t="s">
         <x:v>208</x:v>
       </x:c>
       <x:c r="H1403" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="I1403" s="0" t="s">
         <x:v>12</x:v>
@@ -42116,7 +42119,7 @@
     </x:row>
     <x:row r="1404" spans="1:9">
       <x:c r="A1404" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1404" s="0" t="s">
         <x:v>26</x:v>
@@ -42134,7 +42137,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G1404" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H1404" s="1" t="s">
         <x:v>97</x:v>
@@ -42145,7 +42148,7 @@
     </x:row>
     <x:row r="1405" spans="1:9">
       <x:c r="A1405" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1405" s="0" t="s">
         <x:v>73</x:v>
@@ -42174,7 +42177,7 @@
     </x:row>
     <x:row r="1406" spans="1:9">
       <x:c r="A1406" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1406" s="0" t="s">
         <x:v>73</x:v>
@@ -42203,7 +42206,7 @@
     </x:row>
     <x:row r="1407" spans="1:9">
       <x:c r="A1407" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1407" s="0" t="s">
         <x:v>73</x:v>
@@ -42232,7 +42235,7 @@
     </x:row>
     <x:row r="1408" spans="1:9">
       <x:c r="A1408" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1408" s="0" t="s">
         <x:v>31</x:v>
@@ -42261,7 +42264,7 @@
     </x:row>
     <x:row r="1409" spans="1:9">
       <x:c r="A1409" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1409" s="0" t="s">
         <x:v>31</x:v>
@@ -42290,7 +42293,7 @@
     </x:row>
     <x:row r="1410" spans="1:9">
       <x:c r="A1410" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1410" s="0" t="s">
         <x:v>31</x:v>
@@ -42319,7 +42322,7 @@
     </x:row>
     <x:row r="1411" spans="1:9">
       <x:c r="A1411" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1411" s="0" t="s">
         <x:v>33</x:v>
@@ -42348,7 +42351,7 @@
     </x:row>
     <x:row r="1412" spans="1:9">
       <x:c r="A1412" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1412" s="0" t="s">
         <x:v>33</x:v>
@@ -42377,7 +42380,7 @@
     </x:row>
     <x:row r="1413" spans="1:9">
       <x:c r="A1413" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1413" s="0" t="s">
         <x:v>33</x:v>
@@ -42406,7 +42409,7 @@
     </x:row>
     <x:row r="1414" spans="1:9">
       <x:c r="A1414" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1414" s="0" t="s">
         <x:v>10</x:v>
@@ -42435,7 +42438,7 @@
     </x:row>
     <x:row r="1415" spans="1:9">
       <x:c r="A1415" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1415" s="0" t="s">
         <x:v>10</x:v>
@@ -42464,7 +42467,7 @@
     </x:row>
     <x:row r="1416" spans="1:9">
       <x:c r="A1416" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1416" s="0" t="s">
         <x:v>10</x:v>
@@ -42493,7 +42496,7 @@
     </x:row>
     <x:row r="1417" spans="1:9">
       <x:c r="A1417" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1417" s="0" t="s">
         <x:v>49</x:v>
@@ -42522,7 +42525,7 @@
     </x:row>
     <x:row r="1418" spans="1:9">
       <x:c r="A1418" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1418" s="0" t="s">
         <x:v>49</x:v>
@@ -42551,7 +42554,7 @@
     </x:row>
     <x:row r="1419" spans="1:9">
       <x:c r="A1419" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1419" s="0" t="s">
         <x:v>49</x:v>
@@ -42580,7 +42583,7 @@
     </x:row>
     <x:row r="1420" spans="1:9">
       <x:c r="A1420" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1420" s="0" t="s">
         <x:v>25</x:v>
@@ -42609,7 +42612,7 @@
     </x:row>
     <x:row r="1421" spans="1:9">
       <x:c r="A1421" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1421" s="0" t="s">
         <x:v>25</x:v>
@@ -42638,7 +42641,7 @@
     </x:row>
     <x:row r="1422" spans="1:9">
       <x:c r="A1422" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1422" s="0" t="s">
         <x:v>25</x:v>
@@ -42667,7 +42670,7 @@
     </x:row>
     <x:row r="1423" spans="1:9">
       <x:c r="A1423" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1423" s="0" t="s">
         <x:v>26</x:v>
@@ -42696,7 +42699,7 @@
     </x:row>
     <x:row r="1424" spans="1:9">
       <x:c r="A1424" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1424" s="0" t="s">
         <x:v>26</x:v>
@@ -42725,7 +42728,7 @@
     </x:row>
     <x:row r="1425" spans="1:9">
       <x:c r="A1425" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1425" s="0" t="s">
         <x:v>26</x:v>
@@ -42754,7 +42757,7 @@
     </x:row>
     <x:row r="1426" spans="1:9">
       <x:c r="A1426" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1426" s="0" t="s">
         <x:v>73</x:v>
@@ -42783,7 +42786,7 @@
     </x:row>
     <x:row r="1427" spans="1:9">
       <x:c r="A1427" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1427" s="0" t="s">
         <x:v>73</x:v>
@@ -42812,7 +42815,7 @@
     </x:row>
     <x:row r="1428" spans="1:9">
       <x:c r="A1428" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1428" s="0" t="s">
         <x:v>31</x:v>
@@ -42841,7 +42844,7 @@
     </x:row>
     <x:row r="1429" spans="1:9">
       <x:c r="A1429" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1429" s="0" t="s">
         <x:v>31</x:v>
@@ -42870,7 +42873,7 @@
     </x:row>
     <x:row r="1430" spans="1:9">
       <x:c r="A1430" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1430" s="0" t="s">
         <x:v>31</x:v>
@@ -42899,7 +42902,7 @@
     </x:row>
     <x:row r="1431" spans="1:9">
       <x:c r="A1431" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1431" s="0" t="s">
         <x:v>33</x:v>
@@ -42928,7 +42931,7 @@
     </x:row>
     <x:row r="1432" spans="1:9">
       <x:c r="A1432" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1432" s="0" t="s">
         <x:v>33</x:v>
@@ -42957,7 +42960,7 @@
     </x:row>
     <x:row r="1433" spans="1:9">
       <x:c r="A1433" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B1433" s="0" t="s">
         <x:v>33</x:v>
@@ -42986,7 +42989,7 @@
     </x:row>
     <x:row r="1434" spans="1:9">
       <x:c r="A1434" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1434" s="0" t="s">
         <x:v>10</x:v>
@@ -43015,7 +43018,7 @@
     </x:row>
     <x:row r="1435" spans="1:9">
       <x:c r="A1435" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1435" s="0" t="s">
         <x:v>10</x:v>
@@ -43044,7 +43047,7 @@
     </x:row>
     <x:row r="1436" spans="1:9">
       <x:c r="A1436" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1436" s="0" t="s">
         <x:v>10</x:v>
@@ -43073,7 +43076,7 @@
     </x:row>
     <x:row r="1437" spans="1:9">
       <x:c r="A1437" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1437" s="0" t="s">
         <x:v>23</x:v>
@@ -43102,7 +43105,7 @@
     </x:row>
     <x:row r="1438" spans="1:9">
       <x:c r="A1438" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1438" s="0" t="s">
         <x:v>23</x:v>
@@ -43131,7 +43134,7 @@
     </x:row>
     <x:row r="1439" spans="1:9">
       <x:c r="A1439" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1439" s="0" t="s">
         <x:v>25</x:v>
@@ -43160,7 +43163,7 @@
     </x:row>
     <x:row r="1440" spans="1:9">
       <x:c r="A1440" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1440" s="0" t="s">
         <x:v>25</x:v>
@@ -43189,7 +43192,7 @@
     </x:row>
     <x:row r="1441" spans="1:9">
       <x:c r="A1441" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1441" s="0" t="s">
         <x:v>25</x:v>
@@ -43218,7 +43221,7 @@
     </x:row>
     <x:row r="1442" spans="1:9">
       <x:c r="A1442" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1442" s="0" t="s">
         <x:v>26</x:v>
@@ -43247,7 +43250,7 @@
     </x:row>
     <x:row r="1443" spans="1:9">
       <x:c r="A1443" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1443" s="0" t="s">
         <x:v>26</x:v>
@@ -43276,7 +43279,7 @@
     </x:row>
     <x:row r="1444" spans="1:9">
       <x:c r="A1444" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1444" s="0" t="s">
         <x:v>26</x:v>
@@ -43305,7 +43308,7 @@
     </x:row>
     <x:row r="1445" spans="1:9">
       <x:c r="A1445" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1445" s="0" t="s">
         <x:v>31</x:v>
@@ -43334,7 +43337,7 @@
     </x:row>
     <x:row r="1446" spans="1:9">
       <x:c r="A1446" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1446" s="0" t="s">
         <x:v>31</x:v>
@@ -43363,7 +43366,7 @@
     </x:row>
     <x:row r="1447" spans="1:9">
       <x:c r="A1447" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1447" s="0" t="s">
         <x:v>31</x:v>
@@ -43392,7 +43395,7 @@
     </x:row>
     <x:row r="1448" spans="1:9">
       <x:c r="A1448" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1448" s="0" t="s">
         <x:v>33</x:v>
@@ -43421,7 +43424,7 @@
     </x:row>
     <x:row r="1449" spans="1:9">
       <x:c r="A1449" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1449" s="0" t="s">
         <x:v>33</x:v>
@@ -43450,7 +43453,7 @@
     </x:row>
     <x:row r="1450" spans="1:9">
       <x:c r="A1450" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B1450" s="0" t="s">
         <x:v>33</x:v>
@@ -43479,7 +43482,7 @@
     </x:row>
     <x:row r="1451" spans="1:9">
       <x:c r="A1451" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1451" s="0" t="s">
         <x:v>10</x:v>
@@ -43508,7 +43511,7 @@
     </x:row>
     <x:row r="1452" spans="1:9">
       <x:c r="A1452" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1452" s="0" t="s">
         <x:v>10</x:v>
@@ -43537,7 +43540,7 @@
     </x:row>
     <x:row r="1453" spans="1:9">
       <x:c r="A1453" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1453" s="0" t="s">
         <x:v>10</x:v>
@@ -43566,7 +43569,7 @@
     </x:row>
     <x:row r="1454" spans="1:9">
       <x:c r="A1454" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1454" s="0" t="s">
         <x:v>49</x:v>
@@ -43595,7 +43598,7 @@
     </x:row>
     <x:row r="1455" spans="1:9">
       <x:c r="A1455" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1455" s="0" t="s">
         <x:v>49</x:v>
@@ -43624,7 +43627,7 @@
     </x:row>
     <x:row r="1456" spans="1:9">
       <x:c r="A1456" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1456" s="0" t="s">
         <x:v>49</x:v>
@@ -43653,7 +43656,7 @@
     </x:row>
     <x:row r="1457" spans="1:9">
       <x:c r="A1457" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1457" s="0" t="s">
         <x:v>25</x:v>
@@ -43682,7 +43685,7 @@
     </x:row>
     <x:row r="1458" spans="1:9">
       <x:c r="A1458" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1458" s="0" t="s">
         <x:v>25</x:v>
@@ -43711,7 +43714,7 @@
     </x:row>
     <x:row r="1459" spans="1:9">
       <x:c r="A1459" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1459" s="0" t="s">
         <x:v>25</x:v>
@@ -43740,7 +43743,7 @@
     </x:row>
     <x:row r="1460" spans="1:9">
       <x:c r="A1460" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1460" s="0" t="s">
         <x:v>26</x:v>
@@ -43769,7 +43772,7 @@
     </x:row>
     <x:row r="1461" spans="1:9">
       <x:c r="A1461" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1461" s="0" t="s">
         <x:v>26</x:v>
@@ -43798,7 +43801,7 @@
     </x:row>
     <x:row r="1462" spans="1:9">
       <x:c r="A1462" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1462" s="0" t="s">
         <x:v>26</x:v>
@@ -43827,7 +43830,7 @@
     </x:row>
     <x:row r="1463" spans="1:9">
       <x:c r="A1463" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1463" s="0" t="s">
         <x:v>73</x:v>
@@ -43856,7 +43859,7 @@
     </x:row>
     <x:row r="1464" spans="1:9">
       <x:c r="A1464" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1464" s="0" t="s">
         <x:v>73</x:v>
@@ -43885,7 +43888,7 @@
     </x:row>
     <x:row r="1465" spans="1:9">
       <x:c r="A1465" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1465" s="0" t="s">
         <x:v>31</x:v>
@@ -43914,7 +43917,7 @@
     </x:row>
     <x:row r="1466" spans="1:9">
       <x:c r="A1466" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1466" s="0" t="s">
         <x:v>31</x:v>
@@ -43943,7 +43946,7 @@
     </x:row>
     <x:row r="1467" spans="1:9">
       <x:c r="A1467" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1467" s="0" t="s">
         <x:v>31</x:v>
@@ -43972,7 +43975,7 @@
     </x:row>
     <x:row r="1468" spans="1:9">
       <x:c r="A1468" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1468" s="0" t="s">
         <x:v>129</x:v>
@@ -44001,7 +44004,7 @@
     </x:row>
     <x:row r="1469" spans="1:9">
       <x:c r="A1469" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1469" s="0" t="s">
         <x:v>129</x:v>
@@ -44030,7 +44033,7 @@
     </x:row>
     <x:row r="1470" spans="1:9">
       <x:c r="A1470" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1470" s="0" t="s">
         <x:v>33</x:v>
@@ -44059,7 +44062,7 @@
     </x:row>
     <x:row r="1471" spans="1:9">
       <x:c r="A1471" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1471" s="0" t="s">
         <x:v>33</x:v>
@@ -44088,7 +44091,7 @@
     </x:row>
     <x:row r="1472" spans="1:9">
       <x:c r="A1472" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1472" s="0" t="s">
         <x:v>33</x:v>
@@ -44117,7 +44120,7 @@
     </x:row>
     <x:row r="1473" spans="1:9">
       <x:c r="A1473" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1473" s="0" t="s">
         <x:v>10</x:v>
@@ -44146,7 +44149,7 @@
     </x:row>
     <x:row r="1474" spans="1:9">
       <x:c r="A1474" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1474" s="0" t="s">
         <x:v>10</x:v>
@@ -44175,7 +44178,7 @@
     </x:row>
     <x:row r="1475" spans="1:9">
       <x:c r="A1475" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1475" s="0" t="s">
         <x:v>10</x:v>
@@ -44190,13 +44193,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1475" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="G1475" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="H1475" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="I1475" s="0" t="s">
         <x:v>12</x:v>
@@ -44204,7 +44207,7 @@
     </x:row>
     <x:row r="1476" spans="1:9">
       <x:c r="A1476" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1476" s="0" t="s">
         <x:v>49</x:v>
@@ -44233,7 +44236,7 @@
     </x:row>
     <x:row r="1477" spans="1:9">
       <x:c r="A1477" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1477" s="0" t="s">
         <x:v>49</x:v>
@@ -44262,7 +44265,7 @@
     </x:row>
     <x:row r="1478" spans="1:9">
       <x:c r="A1478" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1478" s="0" t="s">
         <x:v>49</x:v>
@@ -44291,7 +44294,7 @@
     </x:row>
     <x:row r="1479" spans="1:9">
       <x:c r="A1479" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1479" s="0" t="s">
         <x:v>23</x:v>
@@ -44320,7 +44323,7 @@
     </x:row>
     <x:row r="1480" spans="1:9">
       <x:c r="A1480" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1480" s="0" t="s">
         <x:v>23</x:v>
@@ -44349,7 +44352,7 @@
     </x:row>
     <x:row r="1481" spans="1:9">
       <x:c r="A1481" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1481" s="0" t="s">
         <x:v>23</x:v>
@@ -44378,7 +44381,7 @@
     </x:row>
     <x:row r="1482" spans="1:9">
       <x:c r="A1482" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1482" s="0" t="s">
         <x:v>25</x:v>
@@ -44407,7 +44410,7 @@
     </x:row>
     <x:row r="1483" spans="1:9">
       <x:c r="A1483" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1483" s="0" t="s">
         <x:v>25</x:v>
@@ -44436,7 +44439,7 @@
     </x:row>
     <x:row r="1484" spans="1:9">
       <x:c r="A1484" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1484" s="0" t="s">
         <x:v>25</x:v>
@@ -44465,7 +44468,7 @@
     </x:row>
     <x:row r="1485" spans="1:9">
       <x:c r="A1485" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1485" s="0" t="s">
         <x:v>26</x:v>
@@ -44494,7 +44497,7 @@
     </x:row>
     <x:row r="1486" spans="1:9">
       <x:c r="A1486" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1486" s="0" t="s">
         <x:v>26</x:v>
@@ -44523,7 +44526,7 @@
     </x:row>
     <x:row r="1487" spans="1:9">
       <x:c r="A1487" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1487" s="0" t="s">
         <x:v>26</x:v>
@@ -44552,7 +44555,7 @@
     </x:row>
     <x:row r="1488" spans="1:9">
       <x:c r="A1488" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1488" s="0" t="s">
         <x:v>73</x:v>
@@ -44581,7 +44584,7 @@
     </x:row>
     <x:row r="1489" spans="1:9">
       <x:c r="A1489" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1489" s="0" t="s">
         <x:v>73</x:v>
@@ -44610,7 +44613,7 @@
     </x:row>
     <x:row r="1490" spans="1:9">
       <x:c r="A1490" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1490" s="0" t="s">
         <x:v>73</x:v>
@@ -44639,7 +44642,7 @@
     </x:row>
     <x:row r="1491" spans="1:9">
       <x:c r="A1491" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1491" s="0" t="s">
         <x:v>31</x:v>
@@ -44668,7 +44671,7 @@
     </x:row>
     <x:row r="1492" spans="1:9">
       <x:c r="A1492" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1492" s="0" t="s">
         <x:v>31</x:v>
@@ -44697,7 +44700,7 @@
     </x:row>
     <x:row r="1493" spans="1:9">
       <x:c r="A1493" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1493" s="0" t="s">
         <x:v>31</x:v>
@@ -44726,7 +44729,7 @@
     </x:row>
     <x:row r="1494" spans="1:9">
       <x:c r="A1494" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1494" s="0" t="s">
         <x:v>33</x:v>
@@ -44755,7 +44758,7 @@
     </x:row>
     <x:row r="1495" spans="1:9">
       <x:c r="A1495" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1495" s="0" t="s">
         <x:v>33</x:v>
@@ -44784,7 +44787,7 @@
     </x:row>
     <x:row r="1496" spans="1:9">
       <x:c r="A1496" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1496" s="0" t="s">
         <x:v>33</x:v>
@@ -44813,7 +44816,7 @@
     </x:row>
     <x:row r="1497" spans="1:9">
       <x:c r="A1497" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1497" s="0" t="s">
         <x:v>10</x:v>
@@ -44842,7 +44845,7 @@
     </x:row>
     <x:row r="1498" spans="1:9">
       <x:c r="A1498" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1498" s="0" t="s">
         <x:v>10</x:v>
@@ -44871,7 +44874,7 @@
     </x:row>
     <x:row r="1499" spans="1:9">
       <x:c r="A1499" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1499" s="0" t="s">
         <x:v>10</x:v>
@@ -44900,7 +44903,7 @@
     </x:row>
     <x:row r="1500" spans="1:9">
       <x:c r="A1500" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1500" s="0" t="s">
         <x:v>25</x:v>
@@ -44929,7 +44932,7 @@
     </x:row>
     <x:row r="1501" spans="1:9">
       <x:c r="A1501" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1501" s="0" t="s">
         <x:v>25</x:v>
@@ -44958,7 +44961,7 @@
     </x:row>
     <x:row r="1502" spans="1:9">
       <x:c r="A1502" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1502" s="0" t="s">
         <x:v>25</x:v>
@@ -44987,7 +44990,7 @@
     </x:row>
     <x:row r="1503" spans="1:9">
       <x:c r="A1503" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1503" s="0" t="s">
         <x:v>26</x:v>
@@ -45016,7 +45019,7 @@
     </x:row>
     <x:row r="1504" spans="1:9">
       <x:c r="A1504" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1504" s="0" t="s">
         <x:v>26</x:v>
@@ -45045,7 +45048,7 @@
     </x:row>
     <x:row r="1505" spans="1:9">
       <x:c r="A1505" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1505" s="0" t="s">
         <x:v>26</x:v>
@@ -45074,7 +45077,7 @@
     </x:row>
     <x:row r="1506" spans="1:9">
       <x:c r="A1506" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1506" s="0" t="s">
         <x:v>31</x:v>
@@ -45103,7 +45106,7 @@
     </x:row>
     <x:row r="1507" spans="1:9">
       <x:c r="A1507" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1507" s="0" t="s">
         <x:v>31</x:v>
@@ -45132,7 +45135,7 @@
     </x:row>
     <x:row r="1508" spans="1:9">
       <x:c r="A1508" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1508" s="0" t="s">
         <x:v>31</x:v>
@@ -45161,7 +45164,7 @@
     </x:row>
     <x:row r="1509" spans="1:9">
       <x:c r="A1509" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1509" s="0" t="s">
         <x:v>33</x:v>
@@ -45190,7 +45193,7 @@
     </x:row>
     <x:row r="1510" spans="1:9">
       <x:c r="A1510" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1510" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -547,7 +547,7 @@
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>546</x:t>
+    <x:t>547</x:t>
   </x:si>
   <x:si>
     <x:t>1034</x:t>
@@ -562,7 +562,7 @@
     <x:t>216</x:t>
   </x:si>
   <x:si>
-    <x:t>740</x:t>
+    <x:t>741</x:t>
   </x:si>
   <x:si>
     <x:t>1371</x:t>
@@ -18122,7 +18122,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F576" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G576" s="1" t="s">
         <x:v>128</x:v>
@@ -18151,7 +18151,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G577" s="1" t="s">
         <x:v>140</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -607,7 +607,7 @@
     <x:t>285</x:t>
   </x:si>
   <x:si>
-    <x:t>681</x:t>
+    <x:t>682</x:t>
   </x:si>
   <x:si>
     <x:t>524</x:t>
@@ -619,7 +619,7 @@
     <x:t>429</x:t>
   </x:si>
   <x:si>
-    <x:t>944</x:t>
+    <x:t>945</x:t>
   </x:si>
   <x:si>
     <x:t>690</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -901,10 +901,16 @@
     <x:t>108</x:t>
   </x:si>
   <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
     <x:t>75</x:t>
   </x:si>
   <x:si>
     <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
   </x:si>
   <x:si>
     <x:t>105</x:t>
@@ -34539,10 +34545,10 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="G1142" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H1142" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="I1142" s="0" t="s">
         <x:v>12</x:v>
@@ -34565,13 +34571,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1143" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G1143" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="H1143" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="I1143" s="0" t="s">
         <x:v>12</x:v>
@@ -34678,7 +34684,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1147" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F1147" s="1" t="s">
         <x:v>12</x:v>
@@ -34707,7 +34713,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E1148" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F1148" s="1" t="s">
         <x:v>13</x:v>
@@ -34736,7 +34742,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E1149" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F1149" s="1" t="s">
         <x:v>13</x:v>
@@ -34826,10 +34832,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F1152" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="G1152" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H1152" s="1" t="s">
         <x:v>37</x:v>
@@ -34840,7 +34846,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34869,7 +34875,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34898,7 +34904,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34927,7 +34933,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34956,7 +34962,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -34985,7 +34991,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35014,7 +35020,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>23</x:v>
@@ -35043,7 +35049,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>23</x:v>
@@ -35072,7 +35078,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>23</x:v>
@@ -35101,7 +35107,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35130,7 +35136,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35159,7 +35165,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35188,7 +35194,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>26</x:v>
@@ -35217,7 +35223,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>26</x:v>
@@ -35246,7 +35252,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>26</x:v>
@@ -35275,7 +35281,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>73</x:v>
@@ -35304,7 +35310,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>73</x:v>
@@ -35333,7 +35339,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>73</x:v>
@@ -35362,7 +35368,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>31</x:v>
@@ -35391,7 +35397,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>31</x:v>
@@ -35420,7 +35426,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>31</x:v>
@@ -35449,7 +35455,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>33</x:v>
@@ -35478,7 +35484,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>33</x:v>
@@ -35507,7 +35513,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>33</x:v>
@@ -35536,7 +35542,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>10</x:v>
@@ -35565,7 +35571,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>10</x:v>
@@ -35594,7 +35600,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>10</x:v>
@@ -35623,7 +35629,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>49</x:v>
@@ -35652,7 +35658,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>49</x:v>
@@ -35681,7 +35687,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>23</x:v>
@@ -35710,7 +35716,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>23</x:v>
@@ -35739,7 +35745,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>25</x:v>
@@ -35768,7 +35774,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>25</x:v>
@@ -35797,7 +35803,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>25</x:v>
@@ -35826,7 +35832,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>26</x:v>
@@ -35855,7 +35861,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>26</x:v>
@@ -35884,7 +35890,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>26</x:v>
@@ -35913,7 +35919,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>31</x:v>
@@ -35942,7 +35948,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>31</x:v>
@@ -35971,7 +35977,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>31</x:v>
@@ -36000,7 +36006,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>33</x:v>
@@ -36029,7 +36035,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>33</x:v>
@@ -36058,7 +36064,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>33</x:v>
@@ -36087,7 +36093,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>10</x:v>
@@ -36116,7 +36122,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>10</x:v>
@@ -36131,13 +36137,13 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="H1197" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36145,7 +36151,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>10</x:v>
@@ -36163,10 +36169,10 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="G1198" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H1198" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I1198" s="0" t="s">
         <x:v>12</x:v>
@@ -36174,7 +36180,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>49</x:v>
@@ -36203,7 +36209,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>49</x:v>
@@ -36232,7 +36238,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>49</x:v>
@@ -36261,7 +36267,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>23</x:v>
@@ -36290,7 +36296,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>23</x:v>
@@ -36319,7 +36325,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>23</x:v>
@@ -36348,7 +36354,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>25</x:v>
@@ -36377,7 +36383,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>25</x:v>
@@ -36406,7 +36412,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>25</x:v>
@@ -36435,7 +36441,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>26</x:v>
@@ -36464,7 +36470,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>26</x:v>
@@ -36493,7 +36499,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>26</x:v>
@@ -36505,13 +36511,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1210" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F1210" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="G1210" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="H1210" s="1" t="s">
         <x:v>246</x:v>
@@ -36522,7 +36528,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>73</x:v>
@@ -36551,7 +36557,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>73</x:v>
@@ -36580,7 +36586,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>73</x:v>
@@ -36609,7 +36615,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>31</x:v>
@@ -36638,7 +36644,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>31</x:v>
@@ -36667,7 +36673,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36696,7 +36702,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>129</x:v>
@@ -36725,7 +36731,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>129</x:v>
@@ -36754,7 +36760,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36783,7 +36789,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36812,7 +36818,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>33</x:v>
@@ -36841,7 +36847,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36870,7 +36876,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36882,13 +36888,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1223" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F1223" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G1223" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H1223" s="1" t="s">
         <x:v>272</x:v>
@@ -36899,7 +36905,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>10</x:v>
@@ -36911,13 +36917,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1224" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F1224" s="1" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="G1224" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H1224" s="1" t="s">
         <x:v>236</x:v>
@@ -36928,7 +36934,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36957,7 +36963,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>49</x:v>
@@ -36986,7 +36992,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>49</x:v>
@@ -37015,7 +37021,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>23</x:v>
@@ -37044,7 +37050,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>23</x:v>
@@ -37073,7 +37079,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>23</x:v>
@@ -37102,7 +37108,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37131,7 +37137,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>25</x:v>
@@ -37160,7 +37166,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>25</x:v>
@@ -37189,7 +37195,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>26</x:v>
@@ -37218,7 +37224,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>26</x:v>
@@ -37230,7 +37236,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1235" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F1235" s="1" t="s">
         <x:v>98</x:v>
@@ -37247,7 +37253,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>26</x:v>
@@ -37259,13 +37265,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1236" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F1236" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="G1236" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="H1236" s="1" t="s">
         <x:v>81</x:v>
@@ -37276,7 +37282,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>119</x:v>
@@ -37305,7 +37311,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>119</x:v>
@@ -37334,7 +37340,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>119</x:v>
@@ -37363,7 +37369,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>73</x:v>
@@ -37392,7 +37398,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>73</x:v>
@@ -37421,7 +37427,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>73</x:v>
@@ -37450,7 +37456,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>31</x:v>
@@ -37479,7 +37485,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>31</x:v>
@@ -37491,7 +37497,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E1244" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F1244" s="1" t="s">
         <x:v>28</x:v>
@@ -37508,7 +37514,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>31</x:v>
@@ -37520,7 +37526,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E1245" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F1245" s="1" t="s">
         <x:v>99</x:v>
@@ -37537,7 +37543,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>33</x:v>
@@ -37566,7 +37572,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>33</x:v>
@@ -37595,7 +37601,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>33</x:v>
@@ -37624,7 +37630,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>10</x:v>
@@ -37653,7 +37659,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>10</x:v>
@@ -37682,7 +37688,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>10</x:v>
@@ -37711,7 +37717,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>49</x:v>
@@ -37740,7 +37746,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>49</x:v>
@@ -37769,7 +37775,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>23</x:v>
@@ -37798,7 +37804,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>23</x:v>
@@ -37827,7 +37833,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>23</x:v>
@@ -37856,7 +37862,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>25</x:v>
@@ -37885,7 +37891,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>25</x:v>
@@ -37914,7 +37920,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>25</x:v>
@@ -37943,7 +37949,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>26</x:v>
@@ -37972,7 +37978,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>26</x:v>
@@ -38001,7 +38007,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>26</x:v>
@@ -38030,7 +38036,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>31</x:v>
@@ -38059,7 +38065,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>31</x:v>
@@ -38088,7 +38094,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>31</x:v>
@@ -38117,7 +38123,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>33</x:v>
@@ -38146,7 +38152,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>33</x:v>
@@ -38175,7 +38181,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>33</x:v>
@@ -38204,7 +38210,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>10</x:v>
@@ -38233,7 +38239,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>10</x:v>
@@ -38262,7 +38268,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>10</x:v>
@@ -38291,7 +38297,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>49</x:v>
@@ -38320,7 +38326,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>49</x:v>
@@ -38349,7 +38355,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>25</x:v>
@@ -38378,7 +38384,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>25</x:v>
@@ -38407,7 +38413,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>25</x:v>
@@ -38436,7 +38442,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>26</x:v>
@@ -38465,7 +38471,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>26</x:v>
@@ -38494,7 +38500,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>26</x:v>
@@ -38523,7 +38529,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>31</x:v>
@@ -38552,7 +38558,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>31</x:v>
@@ -38581,7 +38587,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>31</x:v>
@@ -38610,7 +38616,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>33</x:v>
@@ -38639,7 +38645,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>33</x:v>
@@ -38668,7 +38674,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>10</x:v>
@@ -38697,7 +38703,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>10</x:v>
@@ -38726,7 +38732,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>10</x:v>
@@ -38755,7 +38761,7 @@
     </x:row>
     <x:row r="1288" spans="1:9">
       <x:c r="A1288" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1288" s="0" t="s">
         <x:v>49</x:v>
@@ -38784,7 +38790,7 @@
     </x:row>
     <x:row r="1289" spans="1:9">
       <x:c r="A1289" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1289" s="0" t="s">
         <x:v>49</x:v>
@@ -38813,7 +38819,7 @@
     </x:row>
     <x:row r="1290" spans="1:9">
       <x:c r="A1290" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1290" s="0" t="s">
         <x:v>49</x:v>
@@ -38842,7 +38848,7 @@
     </x:row>
     <x:row r="1291" spans="1:9">
       <x:c r="A1291" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1291" s="0" t="s">
         <x:v>25</x:v>
@@ -38871,7 +38877,7 @@
     </x:row>
     <x:row r="1292" spans="1:9">
       <x:c r="A1292" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1292" s="0" t="s">
         <x:v>25</x:v>
@@ -38900,7 +38906,7 @@
     </x:row>
     <x:row r="1293" spans="1:9">
       <x:c r="A1293" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1293" s="0" t="s">
         <x:v>25</x:v>
@@ -38929,7 +38935,7 @@
     </x:row>
     <x:row r="1294" spans="1:9">
       <x:c r="A1294" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1294" s="0" t="s">
         <x:v>26</x:v>
@@ -38958,7 +38964,7 @@
     </x:row>
     <x:row r="1295" spans="1:9">
       <x:c r="A1295" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1295" s="0" t="s">
         <x:v>26</x:v>
@@ -38987,7 +38993,7 @@
     </x:row>
     <x:row r="1296" spans="1:9">
       <x:c r="A1296" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1296" s="0" t="s">
         <x:v>26</x:v>
@@ -39016,7 +39022,7 @@
     </x:row>
     <x:row r="1297" spans="1:9">
       <x:c r="A1297" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1297" s="0" t="s">
         <x:v>31</x:v>
@@ -39045,7 +39051,7 @@
     </x:row>
     <x:row r="1298" spans="1:9">
       <x:c r="A1298" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1298" s="0" t="s">
         <x:v>31</x:v>
@@ -39074,7 +39080,7 @@
     </x:row>
     <x:row r="1299" spans="1:9">
       <x:c r="A1299" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1299" s="0" t="s">
         <x:v>31</x:v>
@@ -39103,7 +39109,7 @@
     </x:row>
     <x:row r="1300" spans="1:9">
       <x:c r="A1300" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1300" s="0" t="s">
         <x:v>33</x:v>
@@ -39132,7 +39138,7 @@
     </x:row>
     <x:row r="1301" spans="1:9">
       <x:c r="A1301" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1301" s="0" t="s">
         <x:v>33</x:v>
@@ -39161,7 +39167,7 @@
     </x:row>
     <x:row r="1302" spans="1:9">
       <x:c r="A1302" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1302" s="0" t="s">
         <x:v>33</x:v>
@@ -39190,7 +39196,7 @@
     </x:row>
     <x:row r="1303" spans="1:9">
       <x:c r="A1303" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1303" s="0" t="s">
         <x:v>10</x:v>
@@ -39219,7 +39225,7 @@
     </x:row>
     <x:row r="1304" spans="1:9">
       <x:c r="A1304" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1304" s="0" t="s">
         <x:v>10</x:v>
@@ -39248,7 +39254,7 @@
     </x:row>
     <x:row r="1305" spans="1:9">
       <x:c r="A1305" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1305" s="0" t="s">
         <x:v>10</x:v>
@@ -39277,7 +39283,7 @@
     </x:row>
     <x:row r="1306" spans="1:9">
       <x:c r="A1306" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1306" s="0" t="s">
         <x:v>49</x:v>
@@ -39306,7 +39312,7 @@
     </x:row>
     <x:row r="1307" spans="1:9">
       <x:c r="A1307" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1307" s="0" t="s">
         <x:v>49</x:v>
@@ -39335,7 +39341,7 @@
     </x:row>
     <x:row r="1308" spans="1:9">
       <x:c r="A1308" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1308" s="0" t="s">
         <x:v>49</x:v>
@@ -39364,7 +39370,7 @@
     </x:row>
     <x:row r="1309" spans="1:9">
       <x:c r="A1309" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1309" s="0" t="s">
         <x:v>25</x:v>
@@ -39393,7 +39399,7 @@
     </x:row>
     <x:row r="1310" spans="1:9">
       <x:c r="A1310" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1310" s="0" t="s">
         <x:v>25</x:v>
@@ -39422,7 +39428,7 @@
     </x:row>
     <x:row r="1311" spans="1:9">
       <x:c r="A1311" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1311" s="0" t="s">
         <x:v>25</x:v>
@@ -39451,7 +39457,7 @@
     </x:row>
     <x:row r="1312" spans="1:9">
       <x:c r="A1312" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1312" s="0" t="s">
         <x:v>26</x:v>
@@ -39480,7 +39486,7 @@
     </x:row>
     <x:row r="1313" spans="1:9">
       <x:c r="A1313" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1313" s="0" t="s">
         <x:v>26</x:v>
@@ -39509,7 +39515,7 @@
     </x:row>
     <x:row r="1314" spans="1:9">
       <x:c r="A1314" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1314" s="0" t="s">
         <x:v>26</x:v>
@@ -39538,7 +39544,7 @@
     </x:row>
     <x:row r="1315" spans="1:9">
       <x:c r="A1315" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1315" s="0" t="s">
         <x:v>31</x:v>
@@ -39567,7 +39573,7 @@
     </x:row>
     <x:row r="1316" spans="1:9">
       <x:c r="A1316" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1316" s="0" t="s">
         <x:v>31</x:v>
@@ -39596,7 +39602,7 @@
     </x:row>
     <x:row r="1317" spans="1:9">
       <x:c r="A1317" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1317" s="0" t="s">
         <x:v>31</x:v>
@@ -39625,7 +39631,7 @@
     </x:row>
     <x:row r="1318" spans="1:9">
       <x:c r="A1318" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1318" s="0" t="s">
         <x:v>33</x:v>
@@ -39654,7 +39660,7 @@
     </x:row>
     <x:row r="1319" spans="1:9">
       <x:c r="A1319" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1319" s="0" t="s">
         <x:v>33</x:v>
@@ -39683,7 +39689,7 @@
     </x:row>
     <x:row r="1320" spans="1:9">
       <x:c r="A1320" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1320" s="0" t="s">
         <x:v>33</x:v>
@@ -39712,7 +39718,7 @@
     </x:row>
     <x:row r="1321" spans="1:9">
       <x:c r="A1321" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1321" s="0" t="s">
         <x:v>10</x:v>
@@ -39741,7 +39747,7 @@
     </x:row>
     <x:row r="1322" spans="1:9">
       <x:c r="A1322" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1322" s="0" t="s">
         <x:v>10</x:v>
@@ -39770,7 +39776,7 @@
     </x:row>
     <x:row r="1323" spans="1:9">
       <x:c r="A1323" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1323" s="0" t="s">
         <x:v>10</x:v>
@@ -39799,7 +39805,7 @@
     </x:row>
     <x:row r="1324" spans="1:9">
       <x:c r="A1324" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1324" s="0" t="s">
         <x:v>23</x:v>
@@ -39828,7 +39834,7 @@
     </x:row>
     <x:row r="1325" spans="1:9">
       <x:c r="A1325" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1325" s="0" t="s">
         <x:v>23</x:v>
@@ -39857,7 +39863,7 @@
     </x:row>
     <x:row r="1326" spans="1:9">
       <x:c r="A1326" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1326" s="0" t="s">
         <x:v>25</x:v>
@@ -39886,7 +39892,7 @@
     </x:row>
     <x:row r="1327" spans="1:9">
       <x:c r="A1327" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1327" s="0" t="s">
         <x:v>25</x:v>
@@ -39915,7 +39921,7 @@
     </x:row>
     <x:row r="1328" spans="1:9">
       <x:c r="A1328" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1328" s="0" t="s">
         <x:v>25</x:v>
@@ -39944,7 +39950,7 @@
     </x:row>
     <x:row r="1329" spans="1:9">
       <x:c r="A1329" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1329" s="0" t="s">
         <x:v>26</x:v>
@@ -39973,7 +39979,7 @@
     </x:row>
     <x:row r="1330" spans="1:9">
       <x:c r="A1330" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1330" s="0" t="s">
         <x:v>26</x:v>
@@ -40002,7 +40008,7 @@
     </x:row>
     <x:row r="1331" spans="1:9">
       <x:c r="A1331" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1331" s="0" t="s">
         <x:v>26</x:v>
@@ -40031,7 +40037,7 @@
     </x:row>
     <x:row r="1332" spans="1:9">
       <x:c r="A1332" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1332" s="0" t="s">
         <x:v>10</x:v>
@@ -40060,7 +40066,7 @@
     </x:row>
     <x:row r="1333" spans="1:9">
       <x:c r="A1333" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1333" s="0" t="s">
         <x:v>10</x:v>
@@ -40089,7 +40095,7 @@
     </x:row>
     <x:row r="1334" spans="1:9">
       <x:c r="A1334" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1334" s="0" t="s">
         <x:v>10</x:v>
@@ -40118,7 +40124,7 @@
     </x:row>
     <x:row r="1335" spans="1:9">
       <x:c r="A1335" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1335" s="0" t="s">
         <x:v>49</x:v>
@@ -40147,7 +40153,7 @@
     </x:row>
     <x:row r="1336" spans="1:9">
       <x:c r="A1336" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1336" s="0" t="s">
         <x:v>49</x:v>
@@ -40176,7 +40182,7 @@
     </x:row>
     <x:row r="1337" spans="1:9">
       <x:c r="A1337" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1337" s="0" t="s">
         <x:v>49</x:v>
@@ -40205,7 +40211,7 @@
     </x:row>
     <x:row r="1338" spans="1:9">
       <x:c r="A1338" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1338" s="0" t="s">
         <x:v>25</x:v>
@@ -40234,7 +40240,7 @@
     </x:row>
     <x:row r="1339" spans="1:9">
       <x:c r="A1339" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1339" s="0" t="s">
         <x:v>25</x:v>
@@ -40263,7 +40269,7 @@
     </x:row>
     <x:row r="1340" spans="1:9">
       <x:c r="A1340" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1340" s="0" t="s">
         <x:v>25</x:v>
@@ -40292,7 +40298,7 @@
     </x:row>
     <x:row r="1341" spans="1:9">
       <x:c r="A1341" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1341" s="0" t="s">
         <x:v>26</x:v>
@@ -40321,7 +40327,7 @@
     </x:row>
     <x:row r="1342" spans="1:9">
       <x:c r="A1342" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1342" s="0" t="s">
         <x:v>26</x:v>
@@ -40350,7 +40356,7 @@
     </x:row>
     <x:row r="1343" spans="1:9">
       <x:c r="A1343" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1343" s="0" t="s">
         <x:v>26</x:v>
@@ -40379,7 +40385,7 @@
     </x:row>
     <x:row r="1344" spans="1:9">
       <x:c r="A1344" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1344" s="0" t="s">
         <x:v>31</x:v>
@@ -40408,7 +40414,7 @@
     </x:row>
     <x:row r="1345" spans="1:9">
       <x:c r="A1345" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1345" s="0" t="s">
         <x:v>31</x:v>
@@ -40437,7 +40443,7 @@
     </x:row>
     <x:row r="1346" spans="1:9">
       <x:c r="A1346" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1346" s="0" t="s">
         <x:v>31</x:v>
@@ -40466,7 +40472,7 @@
     </x:row>
     <x:row r="1347" spans="1:9">
       <x:c r="A1347" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1347" s="0" t="s">
         <x:v>33</x:v>
@@ -40495,7 +40501,7 @@
     </x:row>
     <x:row r="1348" spans="1:9">
       <x:c r="A1348" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1348" s="0" t="s">
         <x:v>33</x:v>
@@ -40524,7 +40530,7 @@
     </x:row>
     <x:row r="1349" spans="1:9">
       <x:c r="A1349" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1349" s="0" t="s">
         <x:v>33</x:v>
@@ -40553,7 +40559,7 @@
     </x:row>
     <x:row r="1350" spans="1:9">
       <x:c r="A1350" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1350" s="0" t="s">
         <x:v>10</x:v>
@@ -40582,7 +40588,7 @@
     </x:row>
     <x:row r="1351" spans="1:9">
       <x:c r="A1351" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1351" s="0" t="s">
         <x:v>10</x:v>
@@ -40611,7 +40617,7 @@
     </x:row>
     <x:row r="1352" spans="1:9">
       <x:c r="A1352" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1352" s="0" t="s">
         <x:v>10</x:v>
@@ -40640,7 +40646,7 @@
     </x:row>
     <x:row r="1353" spans="1:9">
       <x:c r="A1353" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1353" s="0" t="s">
         <x:v>49</x:v>
@@ -40669,7 +40675,7 @@
     </x:row>
     <x:row r="1354" spans="1:9">
       <x:c r="A1354" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1354" s="0" t="s">
         <x:v>49</x:v>
@@ -40698,7 +40704,7 @@
     </x:row>
     <x:row r="1355" spans="1:9">
       <x:c r="A1355" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1355" s="0" t="s">
         <x:v>49</x:v>
@@ -40727,7 +40733,7 @@
     </x:row>
     <x:row r="1356" spans="1:9">
       <x:c r="A1356" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1356" s="0" t="s">
         <x:v>23</x:v>
@@ -40756,7 +40762,7 @@
     </x:row>
     <x:row r="1357" spans="1:9">
       <x:c r="A1357" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1357" s="0" t="s">
         <x:v>23</x:v>
@@ -40785,7 +40791,7 @@
     </x:row>
     <x:row r="1358" spans="1:9">
       <x:c r="A1358" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1358" s="0" t="s">
         <x:v>23</x:v>
@@ -40814,7 +40820,7 @@
     </x:row>
     <x:row r="1359" spans="1:9">
       <x:c r="A1359" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1359" s="0" t="s">
         <x:v>25</x:v>
@@ -40843,7 +40849,7 @@
     </x:row>
     <x:row r="1360" spans="1:9">
       <x:c r="A1360" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1360" s="0" t="s">
         <x:v>25</x:v>
@@ -40872,7 +40878,7 @@
     </x:row>
     <x:row r="1361" spans="1:9">
       <x:c r="A1361" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1361" s="0" t="s">
         <x:v>25</x:v>
@@ -40901,7 +40907,7 @@
     </x:row>
     <x:row r="1362" spans="1:9">
       <x:c r="A1362" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1362" s="0" t="s">
         <x:v>26</x:v>
@@ -40930,7 +40936,7 @@
     </x:row>
     <x:row r="1363" spans="1:9">
       <x:c r="A1363" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1363" s="0" t="s">
         <x:v>26</x:v>
@@ -40959,7 +40965,7 @@
     </x:row>
     <x:row r="1364" spans="1:9">
       <x:c r="A1364" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1364" s="0" t="s">
         <x:v>26</x:v>
@@ -40988,7 +40994,7 @@
     </x:row>
     <x:row r="1365" spans="1:9">
       <x:c r="A1365" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1365" s="0" t="s">
         <x:v>31</x:v>
@@ -41017,7 +41023,7 @@
     </x:row>
     <x:row r="1366" spans="1:9">
       <x:c r="A1366" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1366" s="0" t="s">
         <x:v>31</x:v>
@@ -41046,7 +41052,7 @@
     </x:row>
     <x:row r="1367" spans="1:9">
       <x:c r="A1367" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1367" s="0" t="s">
         <x:v>31</x:v>
@@ -41075,7 +41081,7 @@
     </x:row>
     <x:row r="1368" spans="1:9">
       <x:c r="A1368" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1368" s="0" t="s">
         <x:v>33</x:v>
@@ -41104,7 +41110,7 @@
     </x:row>
     <x:row r="1369" spans="1:9">
       <x:c r="A1369" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1369" s="0" t="s">
         <x:v>33</x:v>
@@ -41133,7 +41139,7 @@
     </x:row>
     <x:row r="1370" spans="1:9">
       <x:c r="A1370" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1370" s="0" t="s">
         <x:v>33</x:v>
@@ -41162,7 +41168,7 @@
     </x:row>
     <x:row r="1371" spans="1:9">
       <x:c r="A1371" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1371" s="0" t="s">
         <x:v>10</x:v>
@@ -41191,7 +41197,7 @@
     </x:row>
     <x:row r="1372" spans="1:9">
       <x:c r="A1372" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1372" s="0" t="s">
         <x:v>10</x:v>
@@ -41220,7 +41226,7 @@
     </x:row>
     <x:row r="1373" spans="1:9">
       <x:c r="A1373" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1373" s="0" t="s">
         <x:v>10</x:v>
@@ -41249,7 +41255,7 @@
     </x:row>
     <x:row r="1374" spans="1:9">
       <x:c r="A1374" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1374" s="0" t="s">
         <x:v>49</x:v>
@@ -41278,7 +41284,7 @@
     </x:row>
     <x:row r="1375" spans="1:9">
       <x:c r="A1375" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1375" s="0" t="s">
         <x:v>49</x:v>
@@ -41307,7 +41313,7 @@
     </x:row>
     <x:row r="1376" spans="1:9">
       <x:c r="A1376" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1376" s="0" t="s">
         <x:v>23</x:v>
@@ -41336,7 +41342,7 @@
     </x:row>
     <x:row r="1377" spans="1:9">
       <x:c r="A1377" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1377" s="0" t="s">
         <x:v>23</x:v>
@@ -41365,7 +41371,7 @@
     </x:row>
     <x:row r="1378" spans="1:9">
       <x:c r="A1378" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1378" s="0" t="s">
         <x:v>23</x:v>
@@ -41394,7 +41400,7 @@
     </x:row>
     <x:row r="1379" spans="1:9">
       <x:c r="A1379" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1379" s="0" t="s">
         <x:v>25</x:v>
@@ -41423,7 +41429,7 @@
     </x:row>
     <x:row r="1380" spans="1:9">
       <x:c r="A1380" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1380" s="0" t="s">
         <x:v>25</x:v>
@@ -41452,7 +41458,7 @@
     </x:row>
     <x:row r="1381" spans="1:9">
       <x:c r="A1381" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1381" s="0" t="s">
         <x:v>25</x:v>
@@ -41481,7 +41487,7 @@
     </x:row>
     <x:row r="1382" spans="1:9">
       <x:c r="A1382" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1382" s="0" t="s">
         <x:v>26</x:v>
@@ -41510,7 +41516,7 @@
     </x:row>
     <x:row r="1383" spans="1:9">
       <x:c r="A1383" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1383" s="0" t="s">
         <x:v>26</x:v>
@@ -41539,7 +41545,7 @@
     </x:row>
     <x:row r="1384" spans="1:9">
       <x:c r="A1384" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1384" s="0" t="s">
         <x:v>26</x:v>
@@ -41568,7 +41574,7 @@
     </x:row>
     <x:row r="1385" spans="1:9">
       <x:c r="A1385" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1385" s="0" t="s">
         <x:v>31</x:v>
@@ -41597,7 +41603,7 @@
     </x:row>
     <x:row r="1386" spans="1:9">
       <x:c r="A1386" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1386" s="0" t="s">
         <x:v>31</x:v>
@@ -41626,7 +41632,7 @@
     </x:row>
     <x:row r="1387" spans="1:9">
       <x:c r="A1387" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1387" s="0" t="s">
         <x:v>31</x:v>
@@ -41655,7 +41661,7 @@
     </x:row>
     <x:row r="1388" spans="1:9">
       <x:c r="A1388" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1388" s="0" t="s">
         <x:v>33</x:v>
@@ -41684,7 +41690,7 @@
     </x:row>
     <x:row r="1389" spans="1:9">
       <x:c r="A1389" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1389" s="0" t="s">
         <x:v>33</x:v>
@@ -41713,7 +41719,7 @@
     </x:row>
     <x:row r="1390" spans="1:9">
       <x:c r="A1390" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1390" s="0" t="s">
         <x:v>10</x:v>
@@ -41742,7 +41748,7 @@
     </x:row>
     <x:row r="1391" spans="1:9">
       <x:c r="A1391" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1391" s="0" t="s">
         <x:v>10</x:v>
@@ -41757,10 +41763,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1391" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G1391" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H1391" s="1" t="s">
         <x:v>136</x:v>
@@ -41771,7 +41777,7 @@
     </x:row>
     <x:row r="1392" spans="1:9">
       <x:c r="A1392" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1392" s="0" t="s">
         <x:v>10</x:v>
@@ -41786,7 +41792,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F1392" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G1392" s="1" t="s">
         <x:v>152</x:v>
@@ -41800,7 +41806,7 @@
     </x:row>
     <x:row r="1393" spans="1:9">
       <x:c r="A1393" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1393" s="0" t="s">
         <x:v>49</x:v>
@@ -41829,7 +41835,7 @@
     </x:row>
     <x:row r="1394" spans="1:9">
       <x:c r="A1394" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1394" s="0" t="s">
         <x:v>49</x:v>
@@ -41858,7 +41864,7 @@
     </x:row>
     <x:row r="1395" spans="1:9">
       <x:c r="A1395" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1395" s="0" t="s">
         <x:v>49</x:v>
@@ -41887,7 +41893,7 @@
     </x:row>
     <x:row r="1396" spans="1:9">
       <x:c r="A1396" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1396" s="0" t="s">
         <x:v>23</x:v>
@@ -41916,7 +41922,7 @@
     </x:row>
     <x:row r="1397" spans="1:9">
       <x:c r="A1397" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1397" s="0" t="s">
         <x:v>23</x:v>
@@ -41945,7 +41951,7 @@
     </x:row>
     <x:row r="1398" spans="1:9">
       <x:c r="A1398" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1398" s="0" t="s">
         <x:v>23</x:v>
@@ -41974,7 +41980,7 @@
     </x:row>
     <x:row r="1399" spans="1:9">
       <x:c r="A1399" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1399" s="0" t="s">
         <x:v>25</x:v>
@@ -42003,7 +42009,7 @@
     </x:row>
     <x:row r="1400" spans="1:9">
       <x:c r="A1400" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1400" s="0" t="s">
         <x:v>25</x:v>
@@ -42032,7 +42038,7 @@
     </x:row>
     <x:row r="1401" spans="1:9">
       <x:c r="A1401" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1401" s="0" t="s">
         <x:v>25</x:v>
@@ -42061,7 +42067,7 @@
     </x:row>
     <x:row r="1402" spans="1:9">
       <x:c r="A1402" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1402" s="0" t="s">
         <x:v>26</x:v>
@@ -42090,7 +42096,7 @@
     </x:row>
     <x:row r="1403" spans="1:9">
       <x:c r="A1403" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1403" s="0" t="s">
         <x:v>26</x:v>
@@ -42102,16 +42108,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1403" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F1403" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G1403" s="1" t="s">
         <x:v>208</x:v>
       </x:c>
       <x:c r="H1403" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I1403" s="0" t="s">
         <x:v>12</x:v>
@@ -42119,7 +42125,7 @@
     </x:row>
     <x:row r="1404" spans="1:9">
       <x:c r="A1404" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1404" s="0" t="s">
         <x:v>26</x:v>
@@ -42137,7 +42143,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G1404" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H1404" s="1" t="s">
         <x:v>97</x:v>
@@ -42148,7 +42154,7 @@
     </x:row>
     <x:row r="1405" spans="1:9">
       <x:c r="A1405" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1405" s="0" t="s">
         <x:v>73</x:v>
@@ -42177,7 +42183,7 @@
     </x:row>
     <x:row r="1406" spans="1:9">
       <x:c r="A1406" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1406" s="0" t="s">
         <x:v>73</x:v>
@@ -42206,7 +42212,7 @@
     </x:row>
     <x:row r="1407" spans="1:9">
       <x:c r="A1407" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1407" s="0" t="s">
         <x:v>73</x:v>
@@ -42235,7 +42241,7 @@
     </x:row>
     <x:row r="1408" spans="1:9">
       <x:c r="A1408" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1408" s="0" t="s">
         <x:v>31</x:v>
@@ -42264,7 +42270,7 @@
     </x:row>
     <x:row r="1409" spans="1:9">
       <x:c r="A1409" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1409" s="0" t="s">
         <x:v>31</x:v>
@@ -42293,7 +42299,7 @@
     </x:row>
     <x:row r="1410" spans="1:9">
       <x:c r="A1410" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1410" s="0" t="s">
         <x:v>31</x:v>
@@ -42322,7 +42328,7 @@
     </x:row>
     <x:row r="1411" spans="1:9">
       <x:c r="A1411" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1411" s="0" t="s">
         <x:v>33</x:v>
@@ -42351,7 +42357,7 @@
     </x:row>
     <x:row r="1412" spans="1:9">
       <x:c r="A1412" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1412" s="0" t="s">
         <x:v>33</x:v>
@@ -42380,7 +42386,7 @@
     </x:row>
     <x:row r="1413" spans="1:9">
       <x:c r="A1413" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1413" s="0" t="s">
         <x:v>33</x:v>
@@ -42409,7 +42415,7 @@
     </x:row>
     <x:row r="1414" spans="1:9">
       <x:c r="A1414" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1414" s="0" t="s">
         <x:v>10</x:v>
@@ -42438,7 +42444,7 @@
     </x:row>
     <x:row r="1415" spans="1:9">
       <x:c r="A1415" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1415" s="0" t="s">
         <x:v>10</x:v>
@@ -42467,7 +42473,7 @@
     </x:row>
     <x:row r="1416" spans="1:9">
       <x:c r="A1416" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1416" s="0" t="s">
         <x:v>10</x:v>
@@ -42496,7 +42502,7 @@
     </x:row>
     <x:row r="1417" spans="1:9">
       <x:c r="A1417" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1417" s="0" t="s">
         <x:v>49</x:v>
@@ -42525,7 +42531,7 @@
     </x:row>
     <x:row r="1418" spans="1:9">
       <x:c r="A1418" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1418" s="0" t="s">
         <x:v>49</x:v>
@@ -42554,7 +42560,7 @@
     </x:row>
     <x:row r="1419" spans="1:9">
       <x:c r="A1419" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1419" s="0" t="s">
         <x:v>49</x:v>
@@ -42583,7 +42589,7 @@
     </x:row>
     <x:row r="1420" spans="1:9">
       <x:c r="A1420" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1420" s="0" t="s">
         <x:v>25</x:v>
@@ -42612,7 +42618,7 @@
     </x:row>
     <x:row r="1421" spans="1:9">
       <x:c r="A1421" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1421" s="0" t="s">
         <x:v>25</x:v>
@@ -42641,7 +42647,7 @@
     </x:row>
     <x:row r="1422" spans="1:9">
       <x:c r="A1422" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1422" s="0" t="s">
         <x:v>25</x:v>
@@ -42670,7 +42676,7 @@
     </x:row>
     <x:row r="1423" spans="1:9">
       <x:c r="A1423" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1423" s="0" t="s">
         <x:v>26</x:v>
@@ -42699,7 +42705,7 @@
     </x:row>
     <x:row r="1424" spans="1:9">
       <x:c r="A1424" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1424" s="0" t="s">
         <x:v>26</x:v>
@@ -42728,7 +42734,7 @@
     </x:row>
     <x:row r="1425" spans="1:9">
       <x:c r="A1425" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1425" s="0" t="s">
         <x:v>26</x:v>
@@ -42757,7 +42763,7 @@
     </x:row>
     <x:row r="1426" spans="1:9">
       <x:c r="A1426" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1426" s="0" t="s">
         <x:v>73</x:v>
@@ -42786,7 +42792,7 @@
     </x:row>
     <x:row r="1427" spans="1:9">
       <x:c r="A1427" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1427" s="0" t="s">
         <x:v>73</x:v>
@@ -42815,7 +42821,7 @@
     </x:row>
     <x:row r="1428" spans="1:9">
       <x:c r="A1428" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1428" s="0" t="s">
         <x:v>31</x:v>
@@ -42844,7 +42850,7 @@
     </x:row>
     <x:row r="1429" spans="1:9">
       <x:c r="A1429" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1429" s="0" t="s">
         <x:v>31</x:v>
@@ -42873,7 +42879,7 @@
     </x:row>
     <x:row r="1430" spans="1:9">
       <x:c r="A1430" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1430" s="0" t="s">
         <x:v>31</x:v>
@@ -42902,7 +42908,7 @@
     </x:row>
     <x:row r="1431" spans="1:9">
       <x:c r="A1431" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1431" s="0" t="s">
         <x:v>33</x:v>
@@ -42931,7 +42937,7 @@
     </x:row>
     <x:row r="1432" spans="1:9">
       <x:c r="A1432" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1432" s="0" t="s">
         <x:v>33</x:v>
@@ -42960,7 +42966,7 @@
     </x:row>
     <x:row r="1433" spans="1:9">
       <x:c r="A1433" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1433" s="0" t="s">
         <x:v>33</x:v>
@@ -42989,7 +42995,7 @@
     </x:row>
     <x:row r="1434" spans="1:9">
       <x:c r="A1434" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1434" s="0" t="s">
         <x:v>10</x:v>
@@ -43018,7 +43024,7 @@
     </x:row>
     <x:row r="1435" spans="1:9">
       <x:c r="A1435" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1435" s="0" t="s">
         <x:v>10</x:v>
@@ -43047,7 +43053,7 @@
     </x:row>
     <x:row r="1436" spans="1:9">
       <x:c r="A1436" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1436" s="0" t="s">
         <x:v>10</x:v>
@@ -43076,7 +43082,7 @@
     </x:row>
     <x:row r="1437" spans="1:9">
       <x:c r="A1437" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1437" s="0" t="s">
         <x:v>23</x:v>
@@ -43105,7 +43111,7 @@
     </x:row>
     <x:row r="1438" spans="1:9">
       <x:c r="A1438" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1438" s="0" t="s">
         <x:v>23</x:v>
@@ -43134,7 +43140,7 @@
     </x:row>
     <x:row r="1439" spans="1:9">
       <x:c r="A1439" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1439" s="0" t="s">
         <x:v>25</x:v>
@@ -43163,7 +43169,7 @@
     </x:row>
     <x:row r="1440" spans="1:9">
       <x:c r="A1440" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1440" s="0" t="s">
         <x:v>25</x:v>
@@ -43192,7 +43198,7 @@
     </x:row>
     <x:row r="1441" spans="1:9">
       <x:c r="A1441" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1441" s="0" t="s">
         <x:v>25</x:v>
@@ -43221,7 +43227,7 @@
     </x:row>
     <x:row r="1442" spans="1:9">
       <x:c r="A1442" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1442" s="0" t="s">
         <x:v>26</x:v>
@@ -43250,7 +43256,7 @@
     </x:row>
     <x:row r="1443" spans="1:9">
       <x:c r="A1443" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1443" s="0" t="s">
         <x:v>26</x:v>
@@ -43279,7 +43285,7 @@
     </x:row>
     <x:row r="1444" spans="1:9">
       <x:c r="A1444" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1444" s="0" t="s">
         <x:v>26</x:v>
@@ -43308,7 +43314,7 @@
     </x:row>
     <x:row r="1445" spans="1:9">
       <x:c r="A1445" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1445" s="0" t="s">
         <x:v>31</x:v>
@@ -43337,7 +43343,7 @@
     </x:row>
     <x:row r="1446" spans="1:9">
       <x:c r="A1446" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1446" s="0" t="s">
         <x:v>31</x:v>
@@ -43366,7 +43372,7 @@
     </x:row>
     <x:row r="1447" spans="1:9">
       <x:c r="A1447" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1447" s="0" t="s">
         <x:v>31</x:v>
@@ -43395,7 +43401,7 @@
     </x:row>
     <x:row r="1448" spans="1:9">
       <x:c r="A1448" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1448" s="0" t="s">
         <x:v>33</x:v>
@@ -43424,7 +43430,7 @@
     </x:row>
     <x:row r="1449" spans="1:9">
       <x:c r="A1449" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1449" s="0" t="s">
         <x:v>33</x:v>
@@ -43453,7 +43459,7 @@
     </x:row>
     <x:row r="1450" spans="1:9">
       <x:c r="A1450" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1450" s="0" t="s">
         <x:v>33</x:v>
@@ -43482,7 +43488,7 @@
     </x:row>
     <x:row r="1451" spans="1:9">
       <x:c r="A1451" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1451" s="0" t="s">
         <x:v>10</x:v>
@@ -43511,7 +43517,7 @@
     </x:row>
     <x:row r="1452" spans="1:9">
       <x:c r="A1452" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1452" s="0" t="s">
         <x:v>10</x:v>
@@ -43540,7 +43546,7 @@
     </x:row>
     <x:row r="1453" spans="1:9">
       <x:c r="A1453" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1453" s="0" t="s">
         <x:v>10</x:v>
@@ -43569,7 +43575,7 @@
     </x:row>
     <x:row r="1454" spans="1:9">
       <x:c r="A1454" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1454" s="0" t="s">
         <x:v>49</x:v>
@@ -43598,7 +43604,7 @@
     </x:row>
     <x:row r="1455" spans="1:9">
       <x:c r="A1455" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1455" s="0" t="s">
         <x:v>49</x:v>
@@ -43627,7 +43633,7 @@
     </x:row>
     <x:row r="1456" spans="1:9">
       <x:c r="A1456" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1456" s="0" t="s">
         <x:v>49</x:v>
@@ -43656,7 +43662,7 @@
     </x:row>
     <x:row r="1457" spans="1:9">
       <x:c r="A1457" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1457" s="0" t="s">
         <x:v>25</x:v>
@@ -43685,7 +43691,7 @@
     </x:row>
     <x:row r="1458" spans="1:9">
       <x:c r="A1458" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1458" s="0" t="s">
         <x:v>25</x:v>
@@ -43714,7 +43720,7 @@
     </x:row>
     <x:row r="1459" spans="1:9">
       <x:c r="A1459" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1459" s="0" t="s">
         <x:v>25</x:v>
@@ -43743,7 +43749,7 @@
     </x:row>
     <x:row r="1460" spans="1:9">
       <x:c r="A1460" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1460" s="0" t="s">
         <x:v>26</x:v>
@@ -43772,7 +43778,7 @@
     </x:row>
     <x:row r="1461" spans="1:9">
       <x:c r="A1461" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1461" s="0" t="s">
         <x:v>26</x:v>
@@ -43801,7 +43807,7 @@
     </x:row>
     <x:row r="1462" spans="1:9">
       <x:c r="A1462" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1462" s="0" t="s">
         <x:v>26</x:v>
@@ -43830,7 +43836,7 @@
     </x:row>
     <x:row r="1463" spans="1:9">
       <x:c r="A1463" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1463" s="0" t="s">
         <x:v>73</x:v>
@@ -43859,7 +43865,7 @@
     </x:row>
     <x:row r="1464" spans="1:9">
       <x:c r="A1464" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1464" s="0" t="s">
         <x:v>73</x:v>
@@ -43888,7 +43894,7 @@
     </x:row>
     <x:row r="1465" spans="1:9">
       <x:c r="A1465" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1465" s="0" t="s">
         <x:v>31</x:v>
@@ -43917,7 +43923,7 @@
     </x:row>
     <x:row r="1466" spans="1:9">
       <x:c r="A1466" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1466" s="0" t="s">
         <x:v>31</x:v>
@@ -43946,7 +43952,7 @@
     </x:row>
     <x:row r="1467" spans="1:9">
       <x:c r="A1467" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1467" s="0" t="s">
         <x:v>31</x:v>
@@ -43975,7 +43981,7 @@
     </x:row>
     <x:row r="1468" spans="1:9">
       <x:c r="A1468" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1468" s="0" t="s">
         <x:v>129</x:v>
@@ -44004,7 +44010,7 @@
     </x:row>
     <x:row r="1469" spans="1:9">
       <x:c r="A1469" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1469" s="0" t="s">
         <x:v>129</x:v>
@@ -44033,7 +44039,7 @@
     </x:row>
     <x:row r="1470" spans="1:9">
       <x:c r="A1470" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1470" s="0" t="s">
         <x:v>33</x:v>
@@ -44062,7 +44068,7 @@
     </x:row>
     <x:row r="1471" spans="1:9">
       <x:c r="A1471" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1471" s="0" t="s">
         <x:v>33</x:v>
@@ -44091,7 +44097,7 @@
     </x:row>
     <x:row r="1472" spans="1:9">
       <x:c r="A1472" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1472" s="0" t="s">
         <x:v>33</x:v>
@@ -44120,7 +44126,7 @@
     </x:row>
     <x:row r="1473" spans="1:9">
       <x:c r="A1473" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1473" s="0" t="s">
         <x:v>10</x:v>
@@ -44149,7 +44155,7 @@
     </x:row>
     <x:row r="1474" spans="1:9">
       <x:c r="A1474" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1474" s="0" t="s">
         <x:v>10</x:v>
@@ -44178,7 +44184,7 @@
     </x:row>
     <x:row r="1475" spans="1:9">
       <x:c r="A1475" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1475" s="0" t="s">
         <x:v>10</x:v>
@@ -44193,13 +44199,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1475" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G1475" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H1475" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="I1475" s="0" t="s">
         <x:v>12</x:v>
@@ -44207,7 +44213,7 @@
     </x:row>
     <x:row r="1476" spans="1:9">
       <x:c r="A1476" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1476" s="0" t="s">
         <x:v>49</x:v>
@@ -44236,7 +44242,7 @@
     </x:row>
     <x:row r="1477" spans="1:9">
       <x:c r="A1477" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1477" s="0" t="s">
         <x:v>49</x:v>
@@ -44265,7 +44271,7 @@
     </x:row>
     <x:row r="1478" spans="1:9">
       <x:c r="A1478" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1478" s="0" t="s">
         <x:v>49</x:v>
@@ -44294,7 +44300,7 @@
     </x:row>
     <x:row r="1479" spans="1:9">
       <x:c r="A1479" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1479" s="0" t="s">
         <x:v>23</x:v>
@@ -44323,7 +44329,7 @@
     </x:row>
     <x:row r="1480" spans="1:9">
       <x:c r="A1480" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1480" s="0" t="s">
         <x:v>23</x:v>
@@ -44352,7 +44358,7 @@
     </x:row>
     <x:row r="1481" spans="1:9">
       <x:c r="A1481" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1481" s="0" t="s">
         <x:v>23</x:v>
@@ -44381,7 +44387,7 @@
     </x:row>
     <x:row r="1482" spans="1:9">
       <x:c r="A1482" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1482" s="0" t="s">
         <x:v>25</x:v>
@@ -44410,7 +44416,7 @@
     </x:row>
     <x:row r="1483" spans="1:9">
       <x:c r="A1483" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1483" s="0" t="s">
         <x:v>25</x:v>
@@ -44439,7 +44445,7 @@
     </x:row>
     <x:row r="1484" spans="1:9">
       <x:c r="A1484" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1484" s="0" t="s">
         <x:v>25</x:v>
@@ -44468,7 +44474,7 @@
     </x:row>
     <x:row r="1485" spans="1:9">
       <x:c r="A1485" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1485" s="0" t="s">
         <x:v>26</x:v>
@@ -44497,7 +44503,7 @@
     </x:row>
     <x:row r="1486" spans="1:9">
       <x:c r="A1486" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1486" s="0" t="s">
         <x:v>26</x:v>
@@ -44526,7 +44532,7 @@
     </x:row>
     <x:row r="1487" spans="1:9">
       <x:c r="A1487" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1487" s="0" t="s">
         <x:v>26</x:v>
@@ -44555,7 +44561,7 @@
     </x:row>
     <x:row r="1488" spans="1:9">
       <x:c r="A1488" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1488" s="0" t="s">
         <x:v>73</x:v>
@@ -44584,7 +44590,7 @@
     </x:row>
     <x:row r="1489" spans="1:9">
       <x:c r="A1489" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1489" s="0" t="s">
         <x:v>73</x:v>
@@ -44613,7 +44619,7 @@
     </x:row>
     <x:row r="1490" spans="1:9">
       <x:c r="A1490" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1490" s="0" t="s">
         <x:v>73</x:v>
@@ -44642,7 +44648,7 @@
     </x:row>
     <x:row r="1491" spans="1:9">
       <x:c r="A1491" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1491" s="0" t="s">
         <x:v>31</x:v>
@@ -44671,7 +44677,7 @@
     </x:row>
     <x:row r="1492" spans="1:9">
       <x:c r="A1492" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1492" s="0" t="s">
         <x:v>31</x:v>
@@ -44700,7 +44706,7 @@
     </x:row>
     <x:row r="1493" spans="1:9">
       <x:c r="A1493" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1493" s="0" t="s">
         <x:v>31</x:v>
@@ -44729,7 +44735,7 @@
     </x:row>
     <x:row r="1494" spans="1:9">
       <x:c r="A1494" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1494" s="0" t="s">
         <x:v>33</x:v>
@@ -44758,7 +44764,7 @@
     </x:row>
     <x:row r="1495" spans="1:9">
       <x:c r="A1495" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1495" s="0" t="s">
         <x:v>33</x:v>
@@ -44787,7 +44793,7 @@
     </x:row>
     <x:row r="1496" spans="1:9">
       <x:c r="A1496" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1496" s="0" t="s">
         <x:v>33</x:v>
@@ -44816,7 +44822,7 @@
     </x:row>
     <x:row r="1497" spans="1:9">
       <x:c r="A1497" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1497" s="0" t="s">
         <x:v>10</x:v>
@@ -44845,7 +44851,7 @@
     </x:row>
     <x:row r="1498" spans="1:9">
       <x:c r="A1498" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1498" s="0" t="s">
         <x:v>10</x:v>
@@ -44874,7 +44880,7 @@
     </x:row>
     <x:row r="1499" spans="1:9">
       <x:c r="A1499" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1499" s="0" t="s">
         <x:v>10</x:v>
@@ -44903,7 +44909,7 @@
     </x:row>
     <x:row r="1500" spans="1:9">
       <x:c r="A1500" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1500" s="0" t="s">
         <x:v>25</x:v>
@@ -44932,7 +44938,7 @@
     </x:row>
     <x:row r="1501" spans="1:9">
       <x:c r="A1501" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1501" s="0" t="s">
         <x:v>25</x:v>
@@ -44961,7 +44967,7 @@
     </x:row>
     <x:row r="1502" spans="1:9">
       <x:c r="A1502" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1502" s="0" t="s">
         <x:v>25</x:v>
@@ -44990,7 +44996,7 @@
     </x:row>
     <x:row r="1503" spans="1:9">
       <x:c r="A1503" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1503" s="0" t="s">
         <x:v>26</x:v>
@@ -45019,7 +45025,7 @@
     </x:row>
     <x:row r="1504" spans="1:9">
       <x:c r="A1504" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1504" s="0" t="s">
         <x:v>26</x:v>
@@ -45048,7 +45054,7 @@
     </x:row>
     <x:row r="1505" spans="1:9">
       <x:c r="A1505" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1505" s="0" t="s">
         <x:v>26</x:v>
@@ -45077,7 +45083,7 @@
     </x:row>
     <x:row r="1506" spans="1:9">
       <x:c r="A1506" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1506" s="0" t="s">
         <x:v>31</x:v>
@@ -45106,7 +45112,7 @@
     </x:row>
     <x:row r="1507" spans="1:9">
       <x:c r="A1507" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1507" s="0" t="s">
         <x:v>31</x:v>
@@ -45135,7 +45141,7 @@
     </x:row>
     <x:row r="1508" spans="1:9">
       <x:c r="A1508" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1508" s="0" t="s">
         <x:v>31</x:v>
@@ -45164,7 +45170,7 @@
     </x:row>
     <x:row r="1509" spans="1:9">
       <x:c r="A1509" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1509" s="0" t="s">
         <x:v>33</x:v>
@@ -45193,7 +45199,7 @@
     </x:row>
     <x:row r="1510" spans="1:9">
       <x:c r="A1510" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1510" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -547,7 +547,7 @@
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>547</x:t>
+    <x:t>548</x:t>
   </x:si>
   <x:si>
     <x:t>1034</x:t>
@@ -562,7 +562,7 @@
     <x:t>216</x:t>
   </x:si>
   <x:si>
-    <x:t>741</x:t>
+    <x:t>742</x:t>
   </x:si>
   <x:si>
     <x:t>1370</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -823,7 +823,7 @@
     <x:t>1392</x:t>
   </x:si>
   <x:si>
-    <x:t>1671</x:t>
+    <x:t>1672</x:t>
   </x:si>
   <x:si>
     <x:t>1548</x:t>
@@ -838,7 +838,7 @@
     <x:t>1567</x:t>
   </x:si>
   <x:si>
-    <x:t>1875</x:t>
+    <x:t>1876</x:t>
   </x:si>
   <x:si>
     <x:t>1695</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2021.xlsx
@@ -139,7 +139,7 @@
     <x:t>96</x:t>
   </x:si>
   <x:si>
-    <x:t>236</x:t>
+    <x:t>237</x:t>
   </x:si>
   <x:si>
     <x:t>181</x:t>
@@ -154,7 +154,7 @@
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>281</x:t>
+    <x:t>282</x:t>
   </x:si>
   <x:si>
     <x:t>240</x:t>
@@ -1018,6 +1018,9 @@
     <x:t>99</x:t>
   </x:si>
   <x:si>
+    <x:t>236</x:t>
+  </x:si>
+  <x:si>
     <x:t>191</x:t>
   </x:si>
   <x:si>
@@ -1034,9 +1037,6 @@
   </x:si>
   <x:si>
     <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>237</x:t>
   </x:si>
   <x:si>
     <x:t>153</x:t>
@@ -42137,10 +42137,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F1404" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G1404" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H1404" s="1" t="s">
         <x:v>97</x:v>
@@ -42412,7 +42412,7 @@
     </x:row>
     <x:row r="1414" spans="1:9">
       <x:c r="A1414" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1414" s="0" t="s">
         <x:v>10</x:v>
@@ -42441,7 +42441,7 @@
     </x:row>
     <x:row r="1415" spans="1:9">
       <x:c r="A1415" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1415" s="0" t="s">
         <x:v>10</x:v>
@@ -42470,7 +42470,7 @@
     </x:row>
     <x:row r="1416" spans="1:9">
       <x:c r="A1416" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1416" s="0" t="s">
         <x:v>10</x:v>
@@ -42499,7 +42499,7 @@
     </x:row>
     <x:row r="1417" spans="1:9">
       <x:c r="A1417" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1417" s="0" t="s">
         <x:v>49</x:v>
@@ -42528,7 +42528,7 @@
     </x:row>
     <x:row r="1418" spans="1:9">
       <x:c r="A1418" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1418" s="0" t="s">
         <x:v>49</x:v>
@@ -42557,7 +42557,7 @@
     </x:row>
     <x:row r="1419" spans="1:9">
       <x:c r="A1419" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1419" s="0" t="s">
         <x:v>49</x:v>
@@ -42586,7 +42586,7 @@
     </x:row>
     <x:row r="1420" spans="1:9">
       <x:c r="A1420" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1420" s="0" t="s">
         <x:v>25</x:v>
@@ -42615,7 +42615,7 @@
     </x:row>
     <x:row r="1421" spans="1:9">
       <x:c r="A1421" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1421" s="0" t="s">
         <x:v>25</x:v>
@@ -42644,7 +42644,7 @@
     </x:row>
     <x:row r="1422" spans="1:9">
       <x:c r="A1422" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1422" s="0" t="s">
         <x:v>25</x:v>
@@ -42673,7 +42673,7 @@
     </x:row>
     <x:row r="1423" spans="1:9">
       <x:c r="A1423" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1423" s="0" t="s">
         <x:v>26</x:v>
@@ -42702,7 +42702,7 @@
     </x:row>
     <x:row r="1424" spans="1:9">
       <x:c r="A1424" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1424" s="0" t="s">
         <x:v>26</x:v>
@@ -42731,7 +42731,7 @@
     </x:row>
     <x:row r="1425" spans="1:9">
       <x:c r="A1425" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1425" s="0" t="s">
         <x:v>26</x:v>
@@ -42760,7 +42760,7 @@
     </x:row>
     <x:row r="1426" spans="1:9">
       <x:c r="A1426" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1426" s="0" t="s">
         <x:v>73</x:v>
@@ -42789,7 +42789,7 @@
     </x:row>
     <x:row r="1427" spans="1:9">
       <x:c r="A1427" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1427" s="0" t="s">
         <x:v>73</x:v>
@@ -42818,7 +42818,7 @@
     </x:row>
     <x:row r="1428" spans="1:9">
       <x:c r="A1428" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1428" s="0" t="s">
         <x:v>31</x:v>
@@ -42847,7 +42847,7 @@
     </x:row>
     <x:row r="1429" spans="1:9">
       <x:c r="A1429" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1429" s="0" t="s">
         <x:v>31</x:v>
@@ -42876,7 +42876,7 @@
     </x:row>
     <x:row r="1430" spans="1:9">
       <x:c r="A1430" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1430" s="0" t="s">
         <x:v>31</x:v>
@@ -42905,7 +42905,7 @@
     </x:row>
     <x:row r="1431" spans="1:9">
       <x:c r="A1431" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1431" s="0" t="s">
         <x:v>33</x:v>
@@ -42934,7 +42934,7 @@
     </x:row>
     <x:row r="1432" spans="1:9">
       <x:c r="A1432" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1432" s="0" t="s">
         <x:v>33</x:v>
@@ -42963,7 +42963,7 @@
     </x:row>
     <x:row r="1433" spans="1:9">
       <x:c r="A1433" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1433" s="0" t="s">
         <x:v>33</x:v>
@@ -42992,7 +42992,7 @@
     </x:row>
     <x:row r="1434" spans="1:9">
       <x:c r="A1434" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1434" s="0" t="s">
         <x:v>10</x:v>
@@ -43021,7 +43021,7 @@
     </x:row>
     <x:row r="1435" spans="1:9">
       <x:c r="A1435" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1435" s="0" t="s">
         <x:v>10</x:v>
@@ -43050,7 +43050,7 @@
     </x:row>
     <x:row r="1436" spans="1:9">
       <x:c r="A1436" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1436" s="0" t="s">
         <x:v>10</x:v>
@@ -43079,7 +43079,7 @@
     </x:row>
     <x:row r="1437" spans="1:9">
       <x:c r="A1437" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1437" s="0" t="s">
         <x:v>23</x:v>
@@ -43108,7 +43108,7 @@
     </x:row>
     <x:row r="1438" spans="1:9">
       <x:c r="A1438" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1438" s="0" t="s">
         <x:v>23</x:v>
@@ -43137,7 +43137,7 @@
     </x:row>
     <x:row r="1439" spans="1:9">
       <x:c r="A1439" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1439" s="0" t="s">
         <x:v>25</x:v>
@@ -43166,7 +43166,7 @@
     </x:row>
     <x:row r="1440" spans="1:9">
       <x:c r="A1440" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1440" s="0" t="s">
         <x:v>25</x:v>
@@ -43195,7 +43195,7 @@
     </x:row>
     <x:row r="1441" spans="1:9">
       <x:c r="A1441" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1441" s="0" t="s">
         <x:v>25</x:v>
@@ -43224,7 +43224,7 @@
     </x:row>
     <x:row r="1442" spans="1:9">
       <x:c r="A1442" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1442" s="0" t="s">
         <x:v>26</x:v>
@@ -43253,7 +43253,7 @@
     </x:row>
     <x:row r="1443" spans="1:9">
       <x:c r="A1443" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1443" s="0" t="s">
         <x:v>26</x:v>
@@ -43282,7 +43282,7 @@
     </x:row>
     <x:row r="1444" spans="1:9">
       <x:c r="A1444" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1444" s="0" t="s">
         <x:v>26</x:v>
@@ -43311,7 +43311,7 @@
     </x:row>
     <x:row r="1445" spans="1:9">
       <x:c r="A1445" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1445" s="0" t="s">
         <x:v>31</x:v>
@@ -43340,7 +43340,7 @@
     </x:row>
     <x:row r="1446" spans="1:9">
       <x:c r="A1446" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1446" s="0" t="s">
         <x:v>31</x:v>
@@ -43369,7 +43369,7 @@
     </x:row>
     <x:row r="1447" spans="1:9">
       <x:c r="A1447" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1447" s="0" t="s">
         <x:v>31</x:v>
@@ -43398,7 +43398,7 @@
     </x:row>
     <x:row r="1448" spans="1:9">
       <x:c r="A1448" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1448" s="0" t="s">
         <x:v>33</x:v>
@@ -43427,7 +43427,7 @@
     </x:row>
     <x:row r="1449" spans="1:9">
       <x:c r="A1449" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1449" s="0" t="s">
         <x:v>33</x:v>
@@ -43456,7 +43456,7 @@
     </x:row>
     <x:row r="1450" spans="1:9">
       <x:c r="A1450" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1450" s="0" t="s">
         <x:v>33</x:v>
@@ -43485,7 +43485,7 @@
     </x:row>
     <x:row r="1451" spans="1:9">
       <x:c r="A1451" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1451" s="0" t="s">
         <x:v>10</x:v>
@@ -43514,7 +43514,7 @@
     </x:row>
     <x:row r="1452" spans="1:9">
       <x:c r="A1452" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1452" s="0" t="s">
         <x:v>10</x:v>
@@ -43543,7 +43543,7 @@
     </x:row>
     <x:row r="1453" spans="1:9">
       <x:c r="A1453" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1453" s="0" t="s">
         <x:v>10</x:v>
@@ -43572,7 +43572,7 @@
     </x:row>
     <x:row r="1454" spans="1:9">
       <x:c r="A1454" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1454" s="0" t="s">
         <x:v>49</x:v>
@@ -43601,7 +43601,7 @@
     </x:row>
     <x:row r="1455" spans="1:9">
       <x:c r="A1455" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1455" s="0" t="s">
         <x:v>49</x:v>
@@ -43630,7 +43630,7 @@
     </x:row>
     <x:row r="1456" spans="1:9">
       <x:c r="A1456" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1456" s="0" t="s">
         <x:v>49</x:v>
@@ -43659,7 +43659,7 @@
     </x:row>
     <x:row r="1457" spans="1:9">
       <x:c r="A1457" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1457" s="0" t="s">
         <x:v>25</x:v>
@@ -43688,7 +43688,7 @@
     </x:row>
     <x:row r="1458" spans="1:9">
       <x:c r="A1458" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1458" s="0" t="s">
         <x:v>25</x:v>
@@ -43717,7 +43717,7 @@
     </x:row>
     <x:row r="1459" spans="1:9">
       <x:c r="A1459" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1459" s="0" t="s">
         <x:v>25</x:v>
@@ -43746,7 +43746,7 @@
     </x:row>
     <x:row r="1460" spans="1:9">
       <x:c r="A1460" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1460" s="0" t="s">
         <x:v>26</x:v>
@@ -43775,7 +43775,7 @@
     </x:row>
     <x:row r="1461" spans="1:9">
       <x:c r="A1461" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1461" s="0" t="s">
         <x:v>26</x:v>
@@ -43804,7 +43804,7 @@
     </x:row>
     <x:row r="1462" spans="1:9">
       <x:c r="A1462" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1462" s="0" t="s">
         <x:v>26</x:v>
@@ -43833,7 +43833,7 @@
     </x:row>
     <x:row r="1463" spans="1:9">
       <x:c r="A1463" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1463" s="0" t="s">
         <x:v>73</x:v>
@@ -43862,7 +43862,7 @@
     </x:row>
     <x:row r="1464" spans="1:9">
       <x:c r="A1464" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1464" s="0" t="s">
         <x:v>73</x:v>
@@ -43891,7 +43891,7 @@
     </x:row>
     <x:row r="1465" spans="1:9">
       <x:c r="A1465" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1465" s="0" t="s">
         <x:v>31</x:v>
@@ -43920,7 +43920,7 @@
     </x:row>
     <x:row r="1466" spans="1:9">
       <x:c r="A1466" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1466" s="0" t="s">
         <x:v>31</x:v>
@@ -43949,7 +43949,7 @@
     </x:row>
     <x:row r="1467" spans="1:9">
       <x:c r="A1467" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1467" s="0" t="s">
         <x:v>31</x:v>
@@ -43978,7 +43978,7 @@
     </x:row>
     <x:row r="1468" spans="1:9">
       <x:c r="A1468" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1468" s="0" t="s">
         <x:v>129</x:v>
@@ -44007,7 +44007,7 @@
     </x:row>
     <x:row r="1469" spans="1:9">
       <x:c r="A1469" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1469" s="0" t="s">
         <x:v>129</x:v>
@@ -44036,7 +44036,7 @@
     </x:row>
     <x:row r="1470" spans="1:9">
       <x:c r="A1470" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1470" s="0" t="s">
         <x:v>33</x:v>
@@ -44065,7 +44065,7 @@
     </x:row>
     <x:row r="1471" spans="1:9">
       <x:c r="A1471" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1471" s="0" t="s">
         <x:v>33</x:v>
@@ -44094,7 +44094,7 @@
     </x:row>
     <x:row r="1472" spans="1:9">
       <x:c r="A1472" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1472" s="0" t="s">
         <x:v>33</x:v>
@@ -44123,7 +44123,7 @@
     </x:row>
     <x:row r="1473" spans="1:9">
       <x:c r="A1473" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1473" s="0" t="s">
         <x:v>10</x:v>
@@ -44152,7 +44152,7 @@
     </x:row>
     <x:row r="1474" spans="1:9">
       <x:c r="A1474" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1474" s="0" t="s">
         <x:v>10</x:v>
@@ -44181,7 +44181,7 @@
     </x:row>
     <x:row r="1475" spans="1:9">
       <x:c r="A1475" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1475" s="0" t="s">
         <x:v>10</x:v>
@@ -44196,10 +44196,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1475" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G1475" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H1475" s="1" t="s">
         <x:v>341</x:v>
@@ -44210,7 +44210,7 @@
     </x:row>
     <x:row r="1476" spans="1:9">
       <x:c r="A1476" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1476" s="0" t="s">
         <x:v>49</x:v>
@@ -44239,7 +44239,7 @@
     </x:row>
     <x:row r="1477" spans="1:9">
       <x:c r="A1477" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1477" s="0" t="s">
         <x:v>49</x:v>
@@ -44268,7 +44268,7 @@
     </x:row>
     <x:row r="1478" spans="1:9">
       <x:c r="A1478" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1478" s="0" t="s">
         <x:v>49</x:v>
@@ -44297,7 +44297,7 @@
     </x:row>
     <x:row r="1479" spans="1:9">
       <x:c r="A1479" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1479" s="0" t="s">
         <x:v>23</x:v>
@@ -44326,7 +44326,7 @@
     </x:row>
     <x:row r="1480" spans="1:9">
       <x:c r="A1480" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1480" s="0" t="s">
         <x:v>23</x:v>
@@ -44355,7 +44355,7 @@
     </x:row>
     <x:row r="1481" spans="1:9">
       <x:c r="A1481" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1481" s="0" t="s">
         <x:v>23</x:v>
@@ -44384,7 +44384,7 @@
     </x:row>
     <x:row r="1482" spans="1:9">
       <x:c r="A1482" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1482" s="0" t="s">
         <x:v>25</x:v>
@@ -44413,7 +44413,7 @@
     </x:row>
     <x:row r="1483" spans="1:9">
       <x:c r="A1483" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1483" s="0" t="s">
         <x:v>25</x:v>
@@ -44442,7 +44442,7 @@
     </x:row>
     <x:row r="1484" spans="1:9">
       <x:c r="A1484" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1484" s="0" t="s">
         <x:v>25</x:v>
@@ -44471,7 +44471,7 @@
     </x:row>
     <x:row r="1485" spans="1:9">
       <x:c r="A1485" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1485" s="0" t="s">
         <x:v>26</x:v>
@@ -44500,7 +44500,7 @@
     </x:row>
     <x:row r="1486" spans="1:9">
       <x:c r="A1486" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1486" s="0" t="s">
         <x:v>26</x:v>
@@ -44529,7 +44529,7 @@
     </x:row>
     <x:row r="1487" spans="1:9">
       <x:c r="A1487" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1487" s="0" t="s">
         <x:v>26</x:v>
@@ -44558,7 +44558,7 @@
     </x:row>
     <x:row r="1488" spans="1:9">
       <x:c r="A1488" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1488" s="0" t="s">
         <x:v>73</x:v>
@@ -44587,7 +44587,7 @@
     </x:row>
     <x:row r="1489" spans="1:9">
       <x:c r="A1489" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1489" s="0" t="s">
         <x:v>73</x:v>
@@ -44616,7 +44616,7 @@
     </x:row>
     <x:row r="1490" spans="1:9">
       <x:c r="A1490" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1490" s="0" t="s">
         <x:v>73</x:v>
@@ -44645,7 +44645,7 @@
     </x:row>
     <x:row r="1491" spans="1:9">
       <x:c r="A1491" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1491" s="0" t="s">
         <x:v>31</x:v>
@@ -44674,7 +44674,7 @@
     </x:row>
     <x:row r="1492" spans="1:9">
       <x:c r="A1492" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1492" s="0" t="s">
         <x:v>31</x:v>
@@ -44703,7 +44703,7 @@
     </x:row>
     <x:row r="1493" spans="1:9">
       <x:c r="A1493" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1493" s="0" t="s">
         <x:v>31</x:v>
@@ -44732,7 +44732,7 @@
     </x:row>
     <x:row r="1494" spans="1:9">
       <x:c r="A1494" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1494" s="0" t="s">
         <x:v>33</x:v>
@@ -44761,7 +44761,7 @@
     </x:row>
     <x:row r="1495" spans="1:9">
       <x:c r="A1495" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1495" s="0" t="s">
         <x:v>33</x:v>
@@ -44790,7 +44790,7 @@
     </x:row>
     <x:row r="1496" spans="1:9">
       <x:c r="A1496" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1496" s="0" t="s">
         <x:v>33</x:v>
